--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="301">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -946,6 +947,12 @@
     <t xml:space="preserve">numerator value 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Numerator Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Entity</t>
+  </si>
+  <si>
     <t xml:space="preserve">product_type</t>
   </si>
   <si>
@@ -970,6 +977,12 @@
     <t xml:space="preserve">TCCC</t>
   </si>
   <si>
+    <t xml:space="preserve">manufacturer_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template_fk</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKU,Other</t>
   </si>
   <si>
@@ -985,12 +998,6 @@
     <t xml:space="preserve">Activation Scene Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Numerator Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Entity</t>
-  </si>
-  <si>
     <t xml:space="preserve">target</t>
   </si>
   <si>
@@ -998,12 +1005,6 @@
   </si>
   <si>
     <t xml:space="preserve">POS,SKU,Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_fk</t>
   </si>
   <si>
     <t xml:space="preserve">SOS Targets</t>
@@ -2028,17 +2029,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="97.3724696356275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -4040,11 +4041,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4225,17 +4226,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="74.2348178137652"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="74.8744939271255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="54.9514170040486"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>
@@ -4277,13 +4278,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M1" s="85" t="s">
         <v>247</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O1" s="85" t="s">
         <v>248</v>
@@ -4544,14 +4545,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.8866396761134"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4980,22 +4981,22 @@
         <v>186</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -5018,13 +5019,13 @@
         <v>298</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>114</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H2" s="61" t="s">
         <v>299</v>
@@ -5032,13 +5033,13 @@
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
       <c r="K2" s="40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>300</v>
@@ -5066,26 +5067,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5125,13 +5126,19 @@
       <c r="L1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5146,39 +5153,45 @@
         <v>47</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="N2" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5207,22 +5220,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.2712550607287"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5246,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -5258,25 +5271,25 @@
         <v>186</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -5299,32 +5312,32 @@
         <v>30</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
       <c r="O2" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="68" t="n">
         <v>100</v>
@@ -5354,28 +5367,28 @@
         <v>43</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="63"/>
       <c r="M3" s="70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="68" t="n">
         <v>30</v>
@@ -5401,13 +5414,13 @@
         <v>209</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>141</v>
@@ -5419,10 +5432,10 @@
         <v>211</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
@@ -5430,7 +5443,7 @@
         <v>212</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="68" t="s">
         <v>213</v>
@@ -5457,13 +5470,13 @@
         <v>207</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F5" s="61" t="s">
         <v>97</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>141</v>
@@ -5475,10 +5488,10 @@
         <v>211</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="74" t="s">
@@ -5488,7 +5501,7 @@
         <v>212</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="68" t="s">
         <v>216</v>
@@ -5512,13 +5525,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F6" s="61" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>85</v>
@@ -5530,10 +5543,10 @@
         <v>122</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
@@ -5541,7 +5554,7 @@
         <v>212</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="68" t="s">
         <v>217</v>
@@ -5565,13 +5578,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>110</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>85</v>
@@ -5583,10 +5596,10 @@
         <v>122</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="74" t="s">
@@ -5596,7 +5609,7 @@
         <v>212</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="68" t="s">
         <v>218</v>
@@ -5624,8 +5637,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5636,14 +5649,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5678,7 +5691,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>185</v>
@@ -5687,13 +5700,13 @@
         <v>186</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>220</v>
@@ -5730,13 +5743,13 @@
         <v>224</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5773,11 +5786,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.4493927125506"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.8056680161943"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6039,18 +6052,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="79.3765182186235"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
@@ -6081,7 +6094,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>231</v>
@@ -6096,16 +6109,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>186</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -6131,14 +6144,14 @@
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="25" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>233</v>
@@ -6153,7 +6166,7 @@
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="78" t="s">
@@ -6174,14 +6187,14 @@
         <v>57</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="25" t="s">
         <v>234</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>235</v>
@@ -6196,7 +6209,7 @@
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="78" t="s">
@@ -6217,14 +6230,14 @@
         <v>57</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="25" t="s">
         <v>234</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>233</v>
@@ -6239,7 +6252,7 @@
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P4" s="0"/>
       <c r="Q4" s="78" t="s">
@@ -6260,14 +6273,14 @@
         <v>57</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
         <v>234</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>235</v>
@@ -6282,7 +6295,7 @@
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="78" t="s">
@@ -6303,14 +6316,14 @@
         <v>57</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="25" t="s">
         <v>234</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>233</v>
@@ -6325,7 +6338,7 @@
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="78" t="s">
@@ -6346,14 +6359,14 @@
         <v>57</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="25" t="s">
         <v>234</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>235</v>
@@ -6368,7 +6381,7 @@
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="78" t="s">
@@ -6389,14 +6402,14 @@
         <v>57</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="25" t="s">
         <v>234</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="26" t="s">
@@ -6409,7 +6422,7 @@
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="78" t="s">
@@ -6436,7 +6449,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="78" t="s">
@@ -6451,7 +6464,7 @@
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="78" t="s">
@@ -6478,7 +6491,7 @@
         <v>73</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74" t="s">
@@ -6491,7 +6504,7 @@
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74" t="s">
@@ -6518,7 +6531,7 @@
         <v>73</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
@@ -6531,7 +6544,7 @@
       </c>
       <c r="N11" s="84"/>
       <c r="O11" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P11" s="74"/>
       <c r="Q11" s="74" t="s">
@@ -6563,20 +6576,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6612,7 +6625,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K1" s="85" t="s">
         <v>242</v>
@@ -6633,13 +6646,13 @@
         <v>8</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="R1" s="85" t="s">
         <v>247</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="T1" s="85" t="s">
         <v>248</v>
@@ -6745,7 +6758,7 @@
         <v>258</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="67"/>
@@ -6784,19 +6797,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6833,13 +6846,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>247</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>248</v>
@@ -6881,7 +6894,7 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>21</v>
@@ -6917,7 +6930,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>21</v>
@@ -6953,7 +6966,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>21</v>
@@ -6984,10 +6997,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="351">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -88,7 +89,7 @@
     <t xml:space="preserve">Enfriador</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición</t>
+    <t xml:space="preserve">Primera posicion</t>
   </si>
   <si>
     <t xml:space="preserve">Scoring</t>
@@ -97,7 +98,1080 @@
     <t xml:space="preserve">100/0</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 1</t>
+    <t xml:space="preserve">Primera posicion - Option 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1: Es el primer producto humano después del marco de la puerta y se ve el producto o el lateral al 50%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple survey questions, the 3 combination of multiple answers will allow them to win the points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass/Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera posicion - Option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 2: Tiene un exhibidor que haga bloque? Está a menos de 30cm de distancia y no hay nada que esté entre ellos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera posicion - Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 3: Es Chico: Tiene enfriador de KO?,  es Mediano o grande: Tiene enfriador de KO mínimo de 2 puertas?, se ve el 50% del producto desde el marco de la puerta?, hay enfriadores de competencia pero no se ve el producto desde el marco de la puerta? O Hay enfriador del cliente antes que el de KO y tiene 4 frentes de KO?, Comparando los 2 enfriadores de mayor cantidad de puertas de KO vs el de competencia son de igual o mayor número de puertas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant option should pass for this KPI to get the score (1 or 2 or 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respeto posicion - Option 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1: Los enfriadores de KO están libres de productos diferentes a la marca CC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Purity - 100% of the coke coolers = Coke products , exclude empty spaces , include Other POSM and SKU. This logic need to pass for all the Coke coolers in the store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass/Fail/ NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respeto posicion - Option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 2: La Puerta de la cámara fría cuenta con 25 frentes? Está libre de productos diferentes a la marca CC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per bay SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 1 bay with 100% Cooke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respeto posicion - Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 3: Hay cámara fría más enfriador de KO y ambas opciones anteriores se cumplen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if option 1 and option 2 are relevant both need to pass for this KPI to pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, la division es mayor o igual que 30%? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SOS - Coke facings  / total facing in the relevant scenes, againts a SOS Traget . We need to </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ignore Staking</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. Fria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente chico: La cantidad de puertas de KO es mayor o igual a 1; Cliente mediano: La cantidad de puertas de KO es mayor o igual que 3; Cliente grande: La cantidad de puertas de KO es mayor o igual a 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First - depending on the store size we have a minum facings on cold scenes to get the full points, if the number of facings is less than the target they get a proportional score                                                  Second - we check how many Bays (doors)we have with 100% Coke facings (ignoring Empty) and compare against a target per store size (1, 2 or 3).       If we dont meet the target we subtract 2 point from the total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo por Bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo por Bloques Opcion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1: Acomodo Bloques por Categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Relevant Sub-Category in the scene is blocked together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Colas SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 Hay un solo bloque de Colas Personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Colas MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 Hay un solo bloque de Colas Familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Frutales SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 Hay un solo bloque de frutales personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Frutales MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1Hay un solo bloque de frutales familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. NCB's SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 Hay un solo bloque de NCB's personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. NCB's MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 Hay un solo bloque de NCB's familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 Hay un solo bloque de Agua?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo Categorizador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 2: Hay categorizador con el respeto a colores de puertas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Category is blocked together in the specigic Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo Categorizador (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is each category blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 3: Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI "Acomodo por Bloques" and "Respeto" Passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo por Bloques, Respeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano,Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1: Respeto y acomodo al 100? La division de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 48% y Menor o igual a 50%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 48-50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 2: Respeto y acomodo al 100? El categorizador tiene el respeto a colores de puertas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 3: Respeto y acomodo al 100? El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la division de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 48% y menor o igual a 50%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 4: Respeto y acomodo al 100? Hay enfriador dedicado? La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 64% y menor o igual a 66%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 64-66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Scene Type is present in the session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1: Respeto y acomodo al 100? La division de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 23% y Menor o igual a 25%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutales Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 23-25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 3: Respeto y acomodo al 100? El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la division de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 23% y menor o igual a 25%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 4: Respeto y acomodo al 100? Hay enfriador dedicado? La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 32% y menor o igual a 34%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutales Coke Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 32-34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llenado 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La division de frentes de KO entre la suma de frentes KO, competencia e invasion es mayor que 75%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of Empty is lower than 25% in the Coke Coolers (per scene if we have multiple coke coolers)- ignore staking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafolio y Precios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment KPI per store size and category only cold scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tiene 2 empaqies de lonchera? Tiene todos los empaques por tamaño de cliente de las subcategorías en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment KPI per store size and category in the whole store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cola Sin Azucar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene todos los empaques por tamaño de cliente de la categoría?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene el empaque en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precios en cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene comunicado y exhibidos 5 colas, 2 frutales y 3 NCB's?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platformas Scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have POS material, you need 5 colas, 2 frutales, and 3 NCBs (availability with minimum unique skus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plataformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano,Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico,Mediano,Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene Copete y Cenefas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS M availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamaño?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum facings in the specific scene type, different target per store size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Comidas? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment - 100% of the assortment for this specific scene type is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma está libre de objetos diferentes al portafolio válido?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack Purity - specific scene 100% of Coke products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinamicas 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinamicas 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For large stores we can find more than one rack (Plat. Dinámicas), if we have more than one scene under the specific template we need to use the one with the higher score for the first dynamic kpi and the second one with the higer score for the second dinamyc kpi, we will only report back up to 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM + More than one Rack Secene with specific POSM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales Temporales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los materiales intruidos para el mes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Assortment KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales Fijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los materiales necesarios por tamaño de cliente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidratacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task/ Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ignore_stacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bay_count_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay Count + SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico:56,Mediano:100,Grande:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico:1,Mediano:2,Grande:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU,Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore Stacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Los enfriadores de KO están libres de productos diferentes a la marca CC?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS,SKU,Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, ¿la división es mayor o igual que 30%? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿La división de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 48% y Menor o igual a 50%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Targets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass / Fail /NA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿Hay enfriador dedicado? ¿La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 64% y menor o igual a 66%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Dedicado JDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-66</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿La división de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 23% y Menor o igual a 25%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">23-25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿Hay enfriador dedicado? ¿La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 32% y menor o igual a 34%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">32-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_facings</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿La Puerta de la cámara fría cuenta con 25 frentes? ¿Está libre de productos diferentes a la marca CC?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Per bay SOS Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cámara fría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 1 bay with 100% Coke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Hay cámara fría más enfriador de KO y ambas opciones anteriores se cumplen?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3: ¿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua,Acomodo Categorizador (Detalle)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 48% y menor o igual a 50%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 23% y menor o igual a 25%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Hay categorizador con el respeto a colores de puertas?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Acomodo Bloques por Categoria</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterate by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de frutales personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1¿Hay un solo bloque de frutales familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Agua?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador CC Categorizador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
+BEBIDA REFRESCANTE,BATIDO,AGUA SABORIZADA,AGUA PURIFICADA,AGUA MINERAL,Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_short_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant_question_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Passing Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los materiales intruidos para el mes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exteriores,POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachada (Cuadro Básico), Totem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totem 1 CSD's,Totem 2 CSD's,Totem 3 CSD's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totem 1 CSD's;.40,Totem 2 CSD's;.40,Totem 3 CSD's;.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los materiales necesarios por tamaño de cliente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability POS question with 2 Survey questions. If POS Material exists then pass,¿Hay banderola de la compañia en la fachada?-If Si then pass. ¿Cuántos Totem hay en el exterior de la tienda? If 1 or 2 then pass. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico,Mediano,Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola POS Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Hay banderola de la compañia en la fachada?,¿Cuántos Totem hay en el exterior de la tienda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant_questions</t>
   </si>
   <si>
     <r>
@@ -123,16 +1197,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple survey questions, the 3 combination of multiple answers will allow them to win the points </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass/Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primera posición - Option 2</t>
+    <t xml:space="preserve">Exteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachada (Cuadro Básico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all questions are answered "Si" then pass. If not all questions are answered yes, proceed to option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4,8</t>
   </si>
   <si>
     <r>
@@ -158,7 +1235,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 3</t>
+    <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
   </si>
   <si>
     <r>
@@ -184,1101 +1264,172 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Respeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant option should pass for this KPI to get the score (1 or 2 or 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respeto posición - Option 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Los enfriadores de KO están libres de productos diferentes a la marca CC?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler Purity - 100% of the coke coolers = Coke products , exclude empty spaces , include Other POSM and SKU. This logic need to pass for all the Coke coolers in the store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass/Fail/ NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respeto posición - Option 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿La Puerta de la cámara fría cuenta con 25 frentes? ¿Está libre de productos diferentes a la marca CC?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Per bay SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 1 bay with 100% Cooke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respeto posición - Option 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Hay cámara fría más enfriador de KO y ambas opciones anteriores se cumplen?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if option 1 and option 2 are relevant both need to pass for this KPI to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, ¿la división es mayor o igual que 30%? </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SOS - Coke facings  / total facing in the relevant scenes, againts a SOS Traget . We need to </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ignore Staking</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportional </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap. Fría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente chico: La cantidad de puertas de KO es mayor o igual a 1; Cliente mediano: La cantidad de puertas de KO es mayor o igual que 3; Cliente grande: La cantidad de puertas de KO es mayor o igual a 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First - depending on the store size we have a minum facings on cold scenes to get the full points, if the number of facings is less than the target they get a proportional score                                                  Second - we check how many Bays (doors)we have with 100% Coke facings (ignoring Empty) and compare against a target per store size (1, 2 or 3).       If we dont meet the target we subtract 2 point from the total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques Opción 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Acomodo Bloques por Categoria</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Relevant Sub-Category in the scene is blocked together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Colas SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block Together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Colas MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Frutales SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de frutales personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Frutales MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1¿Hay un solo bloque de frutales familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. NCB's SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. NCB's MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Agua?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo Categorizador</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Hay categorizador con el respeto a colores de puertas?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Category is blocked together in the specigic Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo Categorizador (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is each category blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3: ¿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas 50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI "Acomodo por Bloques" and "Respeto" Passed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques, Respeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano,Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿La división de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 48% y Menor o igual a 50%?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 48-50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">23a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 48% y menor o igual a 50%?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿Hay enfriador dedicado? ¿La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 64% y menor o igual a 66%?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 64-66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Scene Type is present in the session </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales 25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿La división de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 23% y Menor o igual a 25%?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 23-25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 23% y menor o igual a 25%?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿Hay enfriador dedicado? ¿La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 32% y menor o igual a 34%?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales Coke Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 32-34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llenado 75%</t>
+    <t xml:space="preserve">If all questions are answered "No" then pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS option present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum facings met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory SKUs found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coke purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 1? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinamicas 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Hidratacion? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoring logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahorrack,Frutales,Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidratación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precios en Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Tiene 2 empaqies de lonchera? ¿Tiene todos los empaques por tamaño de cliente de las subcategorías en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros,Plataformas,Anaquel,POS,Exteriores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colas Sin Azucar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene el empaque en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component KPIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera posición - Option 1,Primera posición - Option 2,Primera posición - Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one-passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2,Respeto posición - Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo por Bloques Opción 1,Acomodo Categorizador,Acomodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2,Bloques Colas - Opcion 3,Bloques Colas - Opcion 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2,Bloques Frutales - Opcion 3,Bloques Frutales - Opcion 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera posición,Respeto,SOCI,Cap. Fría,Acomodo por Bloques,Bloques Colas 50%,Bloques Frutales 25%,Llenado 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colas,Frutales,NCBs,Cola Sin Azucar,Agua,Precios en cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comidas,Plat. Dinámicas 1,Plat. Dinámicas 2,Hidratación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicación</t>
   </si>
   <si>
     <t xml:space="preserve">¿La división de frentes de KO entre la suma de frentes KO, competencia e invasión es mayor que 75%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of Empty is lower than 25% in the Coke Coolers (per scene if we have multiple coke coolers)- ignore staking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portafolio y Precios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment KPI per store size and category only cold scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Tiene 2 empaqies de lonchera? ¿Tiene todos los empaques por tamaño de cliente de las subcategorías en frío o ambiente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment KPI per store size and category in the whole store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cola Sin Azucar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene el empaque en frío o ambiente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precios en cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene comunicado y exhibidos 5 colas, 2 frutales y 3 NCB's?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platformas Scoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you have POS material, you need 5 colas, 2 frutales, and 3 NCBs (availability with minimum unique skus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plataformas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano,Grande </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico,Mediano,Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platformas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS M availability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum facings in the specific scene type, different target per store size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment - 100% of the assortment for this specific scene type is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack Purity - specific scene 100% of Coke products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinámicas 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinámicas 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For large stores we can find more than one rack (Plat. Dinámicas), if we have more than one scene under the specific template we need to use the one with the higher score for the first dynamic kpi and the second one with the higer score for the second dinamyc kpi, we will only report back up to 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM + More than one Rack Secene with specific POSM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinámicas 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiales Temporales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los materiales intruidos para el mes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSM Assortment KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiales Fijos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los materiales necesarios por tamaño de cliente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidratación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratación?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Hidratación?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Hidratación? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Hidratación?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task/ Template Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ignore_stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bay_count_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay Count + SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico:56,Mediano:100,Grande:150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico:1,Mediano:2,Grande:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU,Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore Stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS,SKU,Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS Targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS Targets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass / Fail /NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador Dedicado JDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64-66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per bay SOS Targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores Otros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cámara fría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 1 bay with 100% Coke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua,Acomodo Categorizador (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iterate by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador CC Categorizador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
-BEBIDA REFRESCANTE,BATIDO,AGUA SABORIZADA,AGUA PURIFICADA,AGUA MINERAL,Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_short_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant_question_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Passing Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exteriores,POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachada (Cuadro Básico), Totem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totem 1 CSD's,Totem 2 CSD's,Totem 3 CSD's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totem 1 CSD's;.40,Totem 2 CSD's;.40,Totem 3 CSD's;.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability POS question with 2 Survey questions. If POS Material exists then pass,¿Hay banderola de la compañia en la fachada?-If Si then pass. ¿Cuántos Totem hay en el exterior de la tienda? If 1 or 2 then pass. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico,Mediano,Grande </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola POS Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Hay banderola de la compañia en la fachada?,¿Cuántos Totem hay en el exterior de la tienda?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant_questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachada (Cuadro Básico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If all questions are answered "Si" then pass. If not all questions are answered yes, proceed to option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If all questions are answered "No" then pass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS option present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum facings met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory SKUs found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoring logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahorrack,Frutales,Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precios en Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros,Plataformas,Anaquel,POS,Exteriores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colas Sin Azucar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_attribute_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component KPIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component aggregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primera posición - Option 1,Primera posición - Option 2,Primera posición - Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one-passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2,Respeto posición - Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques Opción 1,Acomodo Categorizador,Acomodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2,Bloques Colas - Opcion 3,Bloques Colas - Opcion 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2,Bloques Frutales - Opcion 3,Bloques Frutales - Opcion 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primera posición,Respeto,SOCI,Cap. Fría,Acomodo por Bloques,Bloques Colas 50%,Bloques Frutales 25%,Llenado 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colas,Frutales,NCBs,Cola Sin Azucar,Agua,Precios en cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comidas,Plat. Dinámicas 1,Plat. Dinámicas 2,Hidratación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicación</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Empty</t>
@@ -1346,13 +1497,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF595959"/>
-      <name val="VAG Rounded Std Light"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF595959"/>
@@ -1373,6 +1517,13 @@
       <color rgb="FF000000"/>
       <name val="VAG Rounded Std Light"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="VAG Rounded Std Light"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1693,7 +1844,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1745,7 +1896,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1769,26 +1920,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1857,7 +2008,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1901,7 +2052,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1929,7 +2080,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2021,25 +2172,25 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -2138,7 +2289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -2164,7 +2315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -2246,7 +2397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -2274,7 +2425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
@@ -3514,7 +3665,7 @@
       <c r="A54" s="38" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C54" s="42"/>
@@ -3539,7 +3690,7 @@
       <c r="A55" s="39" t="n">
         <v>47</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="43"/>
@@ -3566,7 +3717,7 @@
       <c r="A56" s="38" t="n">
         <v>48</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="45"/>
@@ -3587,11 +3738,11 @@
       </c>
       <c r="I56" s="37"/>
     </row>
-    <row r="57" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="39" t="n">
         <v>49</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C57" s="33"/>
@@ -3612,7 +3763,7 @@
       </c>
       <c r="I57" s="37"/>
     </row>
-    <row r="58" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
         <v>50</v>
       </c>
@@ -3645,12 +3796,12 @@
       <c r="A59" s="38" t="n">
         <v>51</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>164</v>
+      <c r="B59" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>156</v>
@@ -3670,12 +3821,12 @@
       <c r="A60" s="39" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>164</v>
+      <c r="B60" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>156</v>
@@ -3697,12 +3848,12 @@
       <c r="A61" s="38" t="n">
         <v>53</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>164</v>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>156</v>
@@ -3722,12 +3873,12 @@
       <c r="A62" s="39" t="n">
         <v>54</v>
       </c>
-      <c r="B62" s="33" t="s">
-        <v>164</v>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>156</v>
@@ -3773,23 +3924,23 @@
         <v>56</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C64" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -3806,23 +3957,23 @@
         <v>57</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G65" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -3845,7 +3996,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
@@ -3892,35 +4043,35 @@
       <c r="C68" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="54" t="s">
+      <c r="D68" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="55"/>
+      <c r="F68" s="54"/>
       <c r="G68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-    </row>
-    <row r="69" s="53" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+    </row>
+    <row r="69" s="57" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="39" t="n">
         <v>61</v>
       </c>
       <c r="B69" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E69" s="54" t="s">
+      <c r="E69" s="53" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="35" t="s">
@@ -3934,18 +4085,18 @@
       </c>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39" t="n">
         <v>62</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" s="57"/>
+        <v>175</v>
+      </c>
+      <c r="C70" s="56"/>
       <c r="D70" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="53" t="s">
         <v>139</v>
       </c>
       <c r="F70" s="35" t="s">
@@ -3959,18 +4110,18 @@
       </c>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39" t="n">
         <v>63</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="57"/>
+        <v>175</v>
+      </c>
+      <c r="C71" s="56"/>
       <c r="D71" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="53" t="s">
         <v>139</v>
       </c>
       <c r="F71" s="35" t="s">
@@ -3984,18 +4135,18 @@
       </c>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="39" t="n">
         <v>64</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="57"/>
+        <v>175</v>
+      </c>
+      <c r="C72" s="56"/>
       <c r="D72" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="53" t="s">
         <v>139</v>
       </c>
       <c r="F72" s="35" t="s">
@@ -4035,17 +4186,17 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4066,10 +4217,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4084,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4127,13 +4278,13 @@
         <v>133</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>50</v>
       </c>
@@ -4150,7 +4301,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4166,18 +4317,18 @@
       <c r="C5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>176</v>
+      <c r="D5" s="57" t="s">
+        <v>175</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+        <v>321</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
@@ -4196,7 +4347,7 @@
         <v>133</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4219,24 +4370,24 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="74.8744939271255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="75.5182186234818"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="55.4858299595142"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>
@@ -4263,10 +4414,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>7</v>
@@ -4278,16 +4429,16 @@
         <v>8</v>
       </c>
       <c r="L1" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" s="85" t="s">
-        <v>188</v>
-      </c>
       <c r="O1" s="85" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="P1" s="85" t="s">
         <v>11</v>
@@ -4296,7 +4447,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="85" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,13 +4464,13 @@
         <v>117</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="F2" s="63" t="s">
         <v>119</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H2" s="63"/>
       <c r="I2" s="61" t="s">
@@ -4328,11 +4479,11 @@
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
       <c r="L2" s="61" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M2" s="92"/>
       <c r="N2" s="61" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="O2" s="92"/>
       <c r="P2" s="92" t="s">
@@ -4357,13 +4508,13 @@
         <v>122</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="F3" s="63" t="s">
         <v>119</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="61" t="s">
@@ -4372,11 +4523,11 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
       <c r="L3" s="61" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M3" s="92"/>
       <c r="N3" s="61" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="O3" s="92"/>
       <c r="P3" s="92" t="s">
@@ -4401,13 +4552,13 @@
         <v>124</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>119</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="61" t="s">
@@ -4416,11 +4567,11 @@
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="61" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M4" s="92"/>
       <c r="N4" s="61" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="O4" s="92"/>
       <c r="P4" s="92" t="s">
@@ -4442,16 +4593,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>119</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="61" t="s">
@@ -4460,11 +4611,11 @@
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
       <c r="L5" s="61" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M5" s="92"/>
       <c r="N5" s="61" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="O5" s="92"/>
       <c r="P5" s="92" t="s">
@@ -4489,13 +4640,13 @@
         <v>129</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="F6" s="63" t="s">
         <v>119</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="61" t="s">
@@ -4504,11 +4655,11 @@
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
       <c r="L6" s="61" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M6" s="92"/>
       <c r="N6" s="61" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="O6" s="92"/>
       <c r="P6" s="92" t="s">
@@ -4538,21 +4689,21 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4573,16 +4724,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4597,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4617,10 +4768,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4646,10 +4797,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4675,10 +4826,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4706,10 +4857,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>83</v>
@@ -4744,10 +4895,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4768,10 +4919,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>83</v>
@@ -4804,10 +4955,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4830,10 +4981,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4856,10 +5007,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4878,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
@@ -4886,7 +5037,7 @@
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4910,10 +5061,10 @@
         <v>15</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -4969,34 +5120,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -5013,10 +5164,10 @@
         <v>111</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>205</v>
@@ -5025,24 +5176,24 @@
         <v>114</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
       <c r="K2" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L2" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="67" t="s">
-        <v>198</v>
-      </c>
       <c r="N2" s="68" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>44</v>
@@ -5069,21 +5220,21 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5103,37 +5254,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
@@ -5153,40 +5304,40 @@
         <v>47</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>44</v>
@@ -5214,26 +5365,26 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.8056680161943"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5253,43 +5404,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -5306,7 +5457,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>30</v>
@@ -5324,20 +5475,20 @@
         <v>141</v>
       </c>
       <c r="I2" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="64" t="s">
         <v>195</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>196</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
       <c r="O2" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="67" t="s">
         <v>197</v>
-      </c>
-      <c r="P2" s="67" t="s">
-        <v>198</v>
       </c>
       <c r="Q2" s="68" t="n">
         <v>100</v>
@@ -5355,40 +5506,40 @@
         <v>41</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I3" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="63"/>
       <c r="M3" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="67" t="s">
         <v>197</v>
-      </c>
-      <c r="P3" s="67" t="s">
-        <v>198</v>
       </c>
       <c r="Q3" s="68" t="n">
         <v>30</v>
@@ -5408,10 +5559,10 @@
         <v>86</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>205</v>
@@ -5420,39 +5571,39 @@
         <v>88</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K4" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R4" s="67" t="s">
         <v>44</v>
       </c>
       <c r="S4" s="73" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T4" s="67"/>
     </row>
@@ -5464,10 +5615,10 @@
         <v>95</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>205</v>
@@ -5476,35 +5627,35 @@
         <v>97</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K5" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R5" s="67" t="s">
         <v>44</v>
@@ -5519,7 +5670,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>30</v>
@@ -5531,33 +5682,33 @@
         <v>102</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>85</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J6" s="61" t="s">
         <v>122</v>
       </c>
       <c r="K6" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="R6" s="67" t="s">
         <v>44</v>
@@ -5572,7 +5723,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>30</v>
@@ -5584,35 +5735,35 @@
         <v>110</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J7" s="61" t="s">
         <v>122</v>
       </c>
       <c r="K7" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="R7" s="67" t="s">
         <v>44</v>
@@ -5637,8 +5788,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5649,14 +5800,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5682,34 +5833,34 @@
         <v>6</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -5718,7 +5869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
@@ -5728,28 +5879,28 @@
         <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>206</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5780,17 +5931,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.3441295546559"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5821,10 +5972,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>8</v>
       </c>
@@ -5832,7 +5983,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>39</v>
@@ -5841,7 +5992,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>32</v>
@@ -5855,7 +6006,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>39</v>
@@ -5864,7 +6015,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>21</v>
@@ -5878,7 +6029,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>39</v>
@@ -5887,7 +6038,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>21</v>
@@ -5901,7 +6052,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>39</v>
@@ -5910,7 +6061,7 @@
         <v>79</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>21</v>
@@ -5924,7 +6075,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>39</v>
@@ -5947,7 +6098,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>39</v>
@@ -5970,7 +6121,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>39</v>
@@ -5985,7 +6136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>65</v>
       </c>
@@ -5993,7 +6144,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>39</v>
@@ -6002,7 +6153,7 @@
         <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>21</v>
@@ -6052,18 +6203,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="62.663967611336"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.0161943319838"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
@@ -6085,40 +6236,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -6127,7 +6278,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6138,7 +6289,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>57</v>
@@ -6151,22 +6302,22 @@
         <v>58</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="78" t="s">
@@ -6181,7 +6332,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>57</v>
@@ -6191,25 +6342,25 @@
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="78" t="s">
@@ -6224,7 +6375,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>57</v>
@@ -6234,13 +6385,13 @@
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>122</v>
@@ -6248,11 +6399,11 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P4" s="0"/>
       <c r="Q4" s="78" t="s">
@@ -6267,7 +6418,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>57</v>
@@ -6277,13 +6428,13 @@
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>122</v>
@@ -6291,11 +6442,11 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="78" t="s">
@@ -6310,7 +6461,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>57</v>
@@ -6320,25 +6471,25 @@
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="78" t="s">
@@ -6353,7 +6504,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>57</v>
@@ -6363,25 +6514,25 @@
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="78" t="s">
@@ -6396,7 +6547,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>57</v>
@@ -6406,10 +6557,10 @@
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="26" t="s">
@@ -6418,11 +6569,11 @@
       <c r="K8" s="26"/>
       <c r="L8" s="20"/>
       <c r="M8" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="78" t="s">
@@ -6437,34 +6588,34 @@
         <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="78" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="78" t="s">
@@ -6485,26 +6636,26 @@
         <v>57</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74" t="s">
@@ -6525,26 +6676,26 @@
         <v>57</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N11" s="84"/>
       <c r="O11" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P11" s="74"/>
       <c r="Q11" s="74" t="s">
@@ -6576,20 +6727,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6607,16 +6758,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6625,37 +6776,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="P1" s="85" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" s="85" t="s">
-        <v>188</v>
-      </c>
       <c r="T1" s="85" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="U1" s="85" t="s">
         <v>11</v>
@@ -6664,7 +6815,7 @@
         <v>12</v>
       </c>
       <c r="W1" s="85" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,33 +6823,33 @@
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="61" t="s">
         <v>172</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>173</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6721,44 +6872,44 @@
         <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E3" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>173</v>
-      </c>
       <c r="I3" s="61" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="88" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="67"/>
@@ -6791,25 +6942,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6828,43 +6979,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
@@ -6872,35 +7023,35 @@
         <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="96.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>3</v>
       </c>
@@ -6908,35 +7059,35 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="338.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>4</v>
       </c>
@@ -6944,29 +7095,29 @@
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>21</v>
@@ -6990,17 +7141,17 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7015,10 +7166,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7029,10 +7180,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7046,10 +7197,10 @@
         <v>136</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7063,10 +7214,10 @@
         <v>136</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7080,10 +7231,10 @@
         <v>136</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7097,10 +7248,10 @@
         <v>154</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7114,10 +7265,10 @@
         <v>154</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7131,10 +7282,10 @@
         <v>154</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7148,10 +7299,10 @@
         <v>154</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7162,13 +7313,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7179,13 +7330,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7196,13 +7347,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7213,13 +7364,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7230,13 +7381,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7247,13 +7398,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7264,13 +7415,13 @@
         <v>63</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7281,13 +7432,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7304,7 +7455,7 @@
         <v>131</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2172,25 +2173,25 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.9433198380567"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -4186,17 +4187,17 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4370,24 +4371,24 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="75.5182186234818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="76.1619433198381"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="55.914979757085"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>
@@ -4696,14 +4697,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.2348178137652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -5227,14 +5228,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5365,26 +5366,26 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.3441295546559"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5800,14 +5801,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5937,11 +5938,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.5222672064777"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6203,18 +6204,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="63.1983805668016"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.6599190283401"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
@@ -6727,20 +6728,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6948,19 +6949,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7141,17 +7142,17 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7449,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>131</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Is each category blocked?</t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo </t>
+    <t xml:space="preserve">Acomodo</t>
   </si>
   <si>
     <t xml:space="preserve">Opcion 3: Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
@@ -2172,10 +2172,10 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>20</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>20</v>
       </c>
@@ -7142,8 +7142,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="302">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -90,7 +89,7 @@
     <t xml:space="preserve">Enfriador</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion</t>
+    <t xml:space="preserve">Primera posición</t>
   </si>
   <si>
     <t xml:space="preserve">Scoring</t>
@@ -99,10 +98,30 @@
     <t xml:space="preserve">100/0</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Option 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1: Es el primer producto humano después del marco de la puerta y se ve el producto o el lateral al 50%?</t>
+    <t xml:space="preserve">Primera posición - Option 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Es el primer producto humano después del marco de la puerta y se ve el producto o el lateral al 50%?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Survey</t>
@@ -114,16 +133,56 @@
     <t xml:space="preserve">Pass/Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 2: Tiene un exhibidor que haga bloque? Está a menos de 30cm de distancia y no hay nada que esté entre ellos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primera posicion - Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 3: Es Chico: Tiene enfriador de KO?,  es Mediano o grande: Tiene enfriador de KO mínimo de 2 puertas?, se ve el 50% del producto desde el marco de la puerta?, hay enfriadores de competencia pero no se ve el producto desde el marco de la puerta? O Hay enfriador del cliente antes que el de KO y tiene 4 frentes de KO?, Comparando los 2 enfriadores de mayor cantidad de puertas de KO vs el de competencia son de igual o mayor número de puertas?</t>
+    <t xml:space="preserve">Primera posición - Option 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Tiene un exhibidor que haga bloque? ¿Está a menos de 30cm de distancia y no hay nada que esté entre ellos?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera posición - Option 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Es Chico: ¿Tiene enfriador de KO?,  es Mediano o grande: ¿Tiene enfriador de KO mínimo de 2 puertas?, ¿se ve el 50% del producto desde el marco de la puerta?, ¿hay enfriadores de competencia pero no se ve el producto desde el marco de la puerta? O ¿Hay enfriador del cliente antes que el de KO y tiene 4 frentes de KO?, ¿Comparando los 2 enfriadores de mayor cantidad de puertas de KO vs el de competencia son de igual o mayor número de puertas?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Respeto</t>
@@ -132,10 +191,30 @@
     <t xml:space="preserve">Relevant option should pass for this KPI to get the score (1 or 2 or 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1: Los enfriadores de KO están libres de productos diferentes a la marca CC?</t>
+    <t xml:space="preserve">Respeto posición - Option 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Los enfriadores de KO están libres de productos diferentes a la marca CC?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SOS</t>
@@ -147,10 +226,30 @@
     <t xml:space="preserve">Pass/Fail/ NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 2: La Puerta de la cámara fría cuenta con 25 frentes? Está libre de productos diferentes a la marca CC?</t>
+    <t xml:space="preserve">Respeto posición - Option 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿La Puerta de la cámara fría cuenta con 25 frentes? ¿Está libre de productos diferentes a la marca CC?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Per bay SOS</t>
@@ -159,10 +258,30 @@
     <t xml:space="preserve">At least 1 bay with 100% Cooke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 3: Hay cámara fría más enfriador de KO y ambas opciones anteriores se cumplen?</t>
+    <t xml:space="preserve">Respeto posición - Option 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Hay cámara fría más enfriador de KO y ambas opciones anteriores se cumplen?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Combo</t>
@@ -174,7 +293,7 @@
     <t xml:space="preserve">SOCI</t>
   </si>
   <si>
-    <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, la division es mayor o igual que 30%? </t>
+    <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, ¿la división es mayor o igual que 30%? </t>
   </si>
   <si>
     <r>
@@ -206,7 +325,7 @@
     <t xml:space="preserve">Proportional </t>
   </si>
   <si>
-    <t xml:space="preserve">Cap. Fria</t>
+    <t xml:space="preserve">Cap. Fría</t>
   </si>
   <si>
     <t xml:space="preserve">Cliente chico: La cantidad de puertas de KO es mayor o igual a 1; Cliente mediano: La cantidad de puertas de KO es mayor o igual que 3; Cliente grande: La cantidad de puertas de KO es mayor o igual a 5</t>
@@ -224,460 +343,7 @@
     <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo por Bloques Opcion 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1: Acomodo Bloques por Categoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Relevant Sub-Category in the scene is blocked together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Colas SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1 Hay un solo bloque de Colas Personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block Together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Colas MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1 Hay un solo bloque de Colas Familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Frutales SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1 Hay un solo bloque de frutales personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Frutales MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1Hay un solo bloque de frutales familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. NCB's SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1 Hay un solo bloque de NCB's personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. NCB's MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1 Hay un solo bloque de NCB's familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1 Hay un solo bloque de Agua?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo Categorizador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 2: Hay categorizador con el respeto a colores de puertas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Category is blocked together in the specigic Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo Categorizador (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is each category blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 3: Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas 50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI "Acomodo por Bloques" and "Respeto" Passed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques, Respeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano,Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1: Respeto y acomodo al 100? La division de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 48% y Menor o igual a 50%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 48-50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 2: Respeto y acomodo al 100? El categorizador tiene el respeto a colores de puertas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 3: Respeto y acomodo al 100? El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la division de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 48% y menor o igual a 50%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 4: Respeto y acomodo al 100? Hay enfriador dedicado? La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 64% y menor o igual a 66%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 64-66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Scene Type is present in the session </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales 25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 1: Respeto y acomodo al 100? La division de los frentes fríos de colas de KO/total de frentes fríos de KO en los enfriadores de KO es mayor o igual a 23% y Menor o igual a 25%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 23-25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 3: Respeto y acomodo al 100? El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la division de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 23% y menor o igual a 25%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion 4: Respeto y acomodo al 100? Hay enfriador dedicado? La division de frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 32% y menor o igual a 34%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales Coke Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 32-34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llenado 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La division de frentes de KO entre la suma de frentes KO, competencia e invasion es mayor que 75%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of Empty is lower than 25% in the Coke Coolers (per scene if we have multiple coke coolers)- ignore staking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portafolio y Precios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment KPI per store size and category only cold scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tiene 2 empaqies de lonchera? Tiene todos los empaques por tamaño de cliente de las subcategorías en frío o ambiente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment KPI per store size and category in the whole store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cola Sin Azucar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene todos los empaques por tamaño de cliente de la categoría?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene el empaque en frío o ambiente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precios en cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene comunicado y exhibidos 5 colas, 2 frutales y 3 NCB's?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platformas Scoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you have POS material, you need 5 colas, 2 frutales, and 3 NCBs (availability with minimum unique skus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plataformas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano,Grande </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene Copete y Cenefas-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico,Mediano,Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene Copete y Cenefas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platformas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS M availability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamaño?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum facings in the specific scene type, different target per store size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Comidas? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment - 100% of the assortment for this specific scene type is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plataforma está libre de objetos diferentes al portafolio válido?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack Purity - specific scene 100% of Coke products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinamicas 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinamicas 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For large stores we can find more than one rack (Plat. Dinámicas), if we have more than one scene under the specific template we need to use the one with the higher score for the first dynamic kpi and the second one with the higer score for the second dinamyc kpi, we will only report back up to 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM + More than one Rack Secene with specific POSM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiales Temporales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los materiales intruidos para el mes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSM Assortment KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiales Fijos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los materiales necesarios por tamaño de cliente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidratacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene Copete y Cenefas-Hidratacion?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Hidratacion?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task/ Template Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ignore_stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bay_count_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay Count + SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico:56,Mediano:100,Grande:150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico:1,Mediano:2,Grande:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU,Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore Stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target</t>
+    <t xml:space="preserve">Acomodo por Bloques Opción 1</t>
   </si>
   <si>
     <r>
@@ -689,7 +355,84 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Opción 1:</t>
+      <t xml:space="preserve">Opción 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Acomodo Bloques por Categoria</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Relevant Sub-Category in the scene is blocked together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Colas SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Colas MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Frutales SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de frutales personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Frutales MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1¿Hay un solo bloque de frutales familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. NCB's SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's personales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. NCB's MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's familiares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Agua?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo Categorizador</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2:</t>
     </r>
     <r>
       <rPr>
@@ -699,23 +442,70 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> ¿Los enfriadores de KO están libres de productos diferentes a la marca CC?</t>
+      <t xml:space="preserve"> ¿Hay categorizador con el respeto a colores de puertas?</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Enfriadores CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS,SKU,Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, ¿la división es mayor o igual que 30%? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS Targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros </t>
+    <t xml:space="preserve">Each Category is blocked together in the specigic Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo Categorizador (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is each category blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3: ¿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI "Acomodo por Bloques" and "Respeto" Passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo por Bloques, Respeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano,Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 1</t>
   </si>
   <si>
     <r>
@@ -741,22 +531,68 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SOS Targets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass / Fail /NA</t>
+    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 48-50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">23a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 48% y menor o igual a 50%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 4</t>
   </si>
   <si>
     <r>
@@ -782,10 +618,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Enfriador Dedicado JDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64-66</t>
+    <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 64-66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Scene Type is present in the session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 1</t>
   </si>
   <si>
     <r>
@@ -811,7 +653,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">23-25</t>
+    <t xml:space="preserve">Frutales Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 23-25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 23% y menor o igual a 25%?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 4</t>
   </si>
   <si>
     <r>
@@ -837,6 +717,330 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Frutales Coke Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 32-34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llenado 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La división de frentes de KO entre la suma de frentes KO, competencia e invasión es mayor que 75%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of Empty is lower than 25% in the Coke Coolers (per scene if we have multiple coke coolers)- ignore staking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafolio y Precios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment KPI per store size and category only cold scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Tiene 2 empaqies de lonchera? ¿Tiene todos los empaques por tamaño de cliente de las subcategorías en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment KPI per store size and category in the whole store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cola Sin Azucar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene el empaque en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precios en cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene comunicado y exhibidos 5 colas, 2 frutales y 3 NCB's?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platformas Scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have POS material, you need 5 colas, 2 frutales, and 3 NCBs (availability with minimum unique skus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plataformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano,Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico,Mediano,Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS M availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum facings in the specific scene type, different target per store size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment - 100% of the assortment for this specific scene type is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack Purity - specific scene 100% of Coke products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinámicas 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinámicas 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For large stores we can find more than one rack (Plat. Dinámicas), if we have more than one scene under the specific template we need to use the one with the higher score for the first dynamic kpi and the second one with the higer score for the second dinamyc kpi, we will only report back up to 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM + More than one Rack Secene with specific POSM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinámicas 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinámicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Plat. Dinámicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales Temporales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los materiales intruidos para el mes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Assortment KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales Fijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los materiales necesarios por tamaño de cliente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidratación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Hidratación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Hidratación? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Hidratación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task/ Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ignore_stacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bay_count_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay Count + SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico:56,Mediano:100,Grande:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico:1,Mediano:2,Grande:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU,Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore Stacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS,SKU,Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Targets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass / Fail /NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Dedicado JDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">32-34</t>
   </si>
   <si>
@@ -846,29 +1050,6 @@
     <t xml:space="preserve">minimum_facings</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿La Puerta de la cámara fría cuenta con 25 frentes? ¿Está libre de productos diferentes a la marca CC?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Per bay SOS Targets</t>
   </si>
   <si>
@@ -884,179 +1065,18 @@
     <t xml:space="preserve">Target Type</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Hay cámara fría más enfriador de KO y ambas opciones anteriores se cumplen?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3: ¿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Hay categorizador + enfriador rojo? (Se evaluan ambas opciones anteriores)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua,Acomodo Categorizador (Detalle)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 48% y menor o igual a 50%?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2 (Detalle)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas y en los enfriadores rojos de KO la división de los frentes fríos de colas de KO/total de frentes fríos de KO es mayor o igual a 23% y menor o igual a 25%?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2 (Detalle)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Hay categorizador con el respeto a colores de puertas?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿El categorizador tiene el respeto a colores de puertas?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Acomodo Bloques por Categoria</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua</t>
   </si>
   <si>
@@ -1066,37 +1086,16 @@
     <t xml:space="preserve">iterate by</t>
   </si>
   <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Personales?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Personal</t>
   </si>
   <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Colas Familiares?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att</t>
   </si>
   <si>
     <t xml:space="preserve">Familiar</t>
   </si>
   <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de frutales personales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1¿Hay un solo bloque de frutales familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's personales?</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCB's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de NCB's familiares?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Agua?</t>
   </si>
   <si>
     <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
@@ -1136,9 +1135,6 @@
     <t xml:space="preserve">Denominator Value</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene los materiales intruidos para el mes?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exteriores,POS</t>
   </si>
   <si>
@@ -1154,9 +1150,6 @@
     <t xml:space="preserve">Totem 1 CSD's;.40,Totem 2 CSD's;.40,Totem 3 CSD's;.20</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene los materiales necesarios por tamaño de cliente?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Availability POS question with 2 Survey questions. If POS Material exists then pass,¿Hay banderola de la compañia en la fachada?-If Si then pass. ¿Cuántos Totem hay en el exterior de la tienda? If 1 or 2 then pass. </t>
   </si>
   <si>
@@ -1175,29 +1168,6 @@
     <t xml:space="preserve">relevant_questions</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Es el primer producto humano después del marco de la puerta y se ve el producto o el lateral al 50%?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Exteriores</t>
   </si>
   <si>
@@ -1213,27 +1183,7 @@
     <t xml:space="preserve">3,4,8</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ¿Tiene un exhibidor que haga bloque? ¿Está a menos de 30cm de distancia y no hay nada que esté entre ellos?</t>
-    </r>
+    <t xml:space="preserve">store_id</t>
   </si>
   <si>
     <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
@@ -1242,29 +1192,6 @@
     <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Es Chico: ¿Tiene enfriador de KO?,  es Mediano o grande: ¿Tiene enfriador de KO mínimo de 2 puertas?, ¿se ve el 50% del producto desde el marco de la puerta?, ¿hay enfriadores de competencia pero no se ve el producto desde el marco de la puerta? O ¿Hay enfriador del cliente antes que el de KO y tiene 4 frentes de KO?, ¿Comparando los 2 enfriadores de mayor cantidad de puertas de KO vs el de competencia son de igual o mayor número de puertas?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">If all questions are answered "No" then pass </t>
   </si>
   <si>
@@ -1280,69 +1207,18 @@
     <t xml:space="preserve">pass_value</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Comidas?</t>
-  </si>
-  <si>
     <t xml:space="preserve">POS option present</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Comidas?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minimum facings met</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mandatory SKUs found</t>
   </si>
   <si>
-    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coke purity</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinamicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 1? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinamicas 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratacion?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamano-Hidratacion?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Hidratacion? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Platform</t>
   </si>
   <si>
@@ -1352,25 +1228,13 @@
     <t xml:space="preserve">Ahorrack,Frutales,Nutricion</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidratación</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precios en Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Tiene 2 empaqies de lonchera? ¿Tiene todos los empaques por tamaño de cliente de las subcategorías en frío o ambiente?</t>
+    <t xml:space="preserve">kpi_fk_lvl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_fk</t>
   </si>
   <si>
     <t xml:space="preserve">Enfriadores CC, Enfriadores Otros,Plataformas,Anaquel,POS,Exteriores </t>
@@ -1379,12 +1243,6 @@
     <t xml:space="preserve">Colas Sin Azucar</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene el empaque en frío o ambiente?</t>
-  </si>
-  <si>
     <t xml:space="preserve">additional_attribute_2</t>
   </si>
   <si>
@@ -1424,13 +1282,7 @@
     <t xml:space="preserve">Comidas,Plat. Dinámicas 1,Plat. Dinámicas 2,Hidratación</t>
   </si>
   <si>
-    <t xml:space="preserve">Comunicación</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La división de frentes de KO entre la suma de frentes KO, competencia e invasión es mayor que 75%?</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Empty</t>
@@ -1498,6 +1350,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="VAG Rounded Std Light"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF595959"/>
@@ -1518,13 +1377,6 @@
       <color rgb="FF000000"/>
       <name val="VAG Rounded Std Light"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF595959"/>
-      <name val="VAG Rounded Std Light"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1845,7 +1697,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1897,7 +1749,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1921,6 +1773,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1937,10 +1793,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2009,7 +1861,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2053,7 +1905,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2081,7 +1933,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2167,31 +2019,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D44" activeCellId="1" sqref="M2:M6 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.9433198380567"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -2237,7 +2089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -2263,7 +2115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -2290,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -2316,7 +2168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="128" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -2342,7 +2194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -2370,7 +2222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -2398,7 +2250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -2454,7 +2306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -2487,7 +2339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -2520,7 +2372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
@@ -2576,7 +2428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
@@ -2604,7 +2456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
@@ -2630,7 +2482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
@@ -2656,7 +2508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
@@ -2682,7 +2534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
@@ -2708,7 +2560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>17</v>
       </c>
@@ -2734,7 +2586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
@@ -2760,7 +2612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
@@ -2785,7 +2637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -2805,7 +2657,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>20</v>
       </c>
@@ -2830,7 +2682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>21</v>
       </c>
@@ -2866,7 +2718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <v>21</v>
       </c>
@@ -2902,7 +2754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>22</v>
       </c>
@@ -2952,7 +2804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2997,7 +2849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>25</v>
       </c>
@@ -3025,7 +2877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>26</v>
       </c>
@@ -3060,7 +2912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
         <v>27</v>
       </c>
@@ -3110,7 +2962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>104</v>
       </c>
@@ -3155,7 +3007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
         <v>30</v>
       </c>
@@ -3183,7 +3035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>31</v>
       </c>
@@ -3213,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" s="31" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="31" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="n">
         <v>32</v>
       </c>
@@ -3236,7 +3088,7 @@
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
         <v>33</v>
       </c>
@@ -3269,7 +3121,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>34</v>
       </c>
@@ -3302,7 +3154,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>35</v>
       </c>
@@ -3335,7 +3187,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
         <v>36</v>
       </c>
@@ -3368,7 +3220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
         <v>37</v>
       </c>
@@ -3401,7 +3253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>38</v>
       </c>
@@ -3431,7 +3283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" s="31" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" s="31" customFormat="true" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
         <v>39</v>
       </c>
@@ -3454,7 +3306,7 @@
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
         <v>40</v>
       </c>
@@ -3481,7 +3333,7 @@
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
     </row>
-    <row r="47" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
         <v>40</v>
       </c>
@@ -3506,7 +3358,7 @@
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
     </row>
-    <row r="48" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="32" t="n">
         <v>41</v>
       </c>
@@ -3531,7 +3383,7 @@
       </c>
       <c r="I48" s="37"/>
     </row>
-    <row r="49" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="38" t="n">
         <v>42</v>
       </c>
@@ -3558,7 +3410,7 @@
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="39" t="n">
         <v>43</v>
       </c>
@@ -3585,7 +3437,7 @@
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="38" t="n">
         <v>44</v>
       </c>
@@ -3610,7 +3462,7 @@
       </c>
       <c r="I51" s="37"/>
     </row>
-    <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
         <v>45</v>
       </c>
@@ -3637,7 +3489,7 @@
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
         <v>45</v>
       </c>
@@ -3662,11 +3514,11 @@
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="38" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="33" t="s">
         <v>154</v>
       </c>
       <c r="C54" s="42"/>
@@ -3687,11 +3539,11 @@
       </c>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="39" t="n">
         <v>47</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="33" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="43"/>
@@ -3714,11 +3566,11 @@
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="38" t="n">
         <v>48</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="33" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="45"/>
@@ -3739,11 +3591,11 @@
       </c>
       <c r="I56" s="37"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="39" t="n">
         <v>49</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="33" t="s">
         <v>154</v>
       </c>
       <c r="C57" s="33"/>
@@ -3764,7 +3616,7 @@
       </c>
       <c r="I57" s="37"/>
     </row>
-    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="41.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
         <v>50</v>
       </c>
@@ -3793,16 +3645,16 @@
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="38" t="n">
         <v>51</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>161</v>
+      <c r="B59" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>156</v>
@@ -3818,16 +3670,16 @@
       </c>
       <c r="I59" s="37"/>
     </row>
-    <row r="60" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="39" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>161</v>
+      <c r="B60" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>156</v>
@@ -3845,16 +3697,16 @@
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="38" t="n">
         <v>53</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>161</v>
+      <c r="B61" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>156</v>
@@ -3870,16 +3722,16 @@
       </c>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="39" t="n">
         <v>54</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>161</v>
+      <c r="B62" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>156</v>
@@ -3895,7 +3747,7 @@
       </c>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" s="47" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="47" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
         <v>55</v>
       </c>
@@ -3920,28 +3772,28 @@
       <c r="L63" s="46"/>
       <c r="M63" s="46"/>
     </row>
-    <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
         <v>56</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C64" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -3953,28 +3805,28 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="n">
         <v>57</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -3986,7 +3838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
         <v>58</v>
       </c>
@@ -3997,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
@@ -4011,7 +3863,7 @@
       <c r="L66" s="46"/>
       <c r="M66" s="46"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="n">
         <v>59</v>
       </c>
@@ -4034,7 +3886,7 @@
       <c r="L67" s="51"/>
       <c r="M67" s="51"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
         <v>60</v>
       </c>
@@ -4044,35 +3896,35 @@
       <c r="C68" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="53" t="s">
+      <c r="D68" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="54"/>
+      <c r="F68" s="55"/>
       <c r="G68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-    </row>
-    <row r="69" s="57" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+    </row>
+    <row r="69" s="53" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="39" t="n">
         <v>61</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="C69" s="57"/>
       <c r="D69" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="54" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="35" t="s">
@@ -4086,18 +3938,18 @@
       </c>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39" t="n">
         <v>62</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="C70" s="57"/>
       <c r="D70" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="54" t="s">
         <v>139</v>
       </c>
       <c r="F70" s="35" t="s">
@@ -4111,18 +3963,18 @@
       </c>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39" t="n">
         <v>63</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="C71" s="57"/>
       <c r="D71" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="54" t="s">
         <v>139</v>
       </c>
       <c r="F71" s="35" t="s">
@@ -4136,18 +3988,18 @@
       </c>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="39" t="n">
         <v>64</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="C72" s="57"/>
       <c r="D72" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="54" t="s">
         <v>139</v>
       </c>
       <c r="F72" s="35" t="s">
@@ -4163,7 +4015,13 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:M72"/>
+  <autoFilter ref="A1:M72">
+    <filterColumn colId="6">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Combo"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H14:H20"/>
@@ -4187,17 +4045,17 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="M2:M6 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4218,10 +4076,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4236,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4279,13 +4137,13 @@
         <v>133</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>50</v>
       </c>
@@ -4302,7 +4160,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4318,18 +4176,18 @@
       <c r="C5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>175</v>
+      <c r="D5" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>321</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+        <v>176</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
@@ -4348,7 +4206,7 @@
         <v>133</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4369,30 +4227,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="76.1619433198381"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="78" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="75.5182186234818"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="78" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4409,49 +4267,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="G1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="85" t="s">
-        <v>180</v>
-      </c>
       <c r="H1" s="85" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="I1" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="K1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="L1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="85" t="s">
-        <v>186</v>
-      </c>
       <c r="M1" s="85" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="P1" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="R1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="85" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S1" s="85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="60" t="n">
         <v>33</v>
       </c>
@@ -4464,38 +4325,41 @@
       <c r="D2" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="69" t="n">
+        <v>939</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="61"/>
       <c r="K2" s="61"/>
-      <c r="L2" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="92"/>
+      <c r="O2" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="R2" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="92"/>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S2" s="92"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="60" t="n">
         <v>34</v>
       </c>
@@ -4508,38 +4372,41 @@
       <c r="D3" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" s="63" t="s">
+      <c r="E3" s="69" t="n">
+        <v>957</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="61" t="s">
+      <c r="H3" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="61"/>
       <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="N3" s="92"/>
+      <c r="O3" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="R3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="92"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="92"/>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="60" t="n">
         <v>35</v>
       </c>
@@ -4552,36 +4419,39 @@
       <c r="D4" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="69" t="n">
+        <v>941</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="61"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="N4" s="92"/>
+      <c r="O4" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="R4" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="60" t="n">
@@ -4594,38 +4464,41 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="69" t="n">
+        <v>945</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="61"/>
       <c r="K5" s="61"/>
-      <c r="L5" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92" t="s">
+      <c r="L5" s="61"/>
+      <c r="M5" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="N5" s="92"/>
+      <c r="O5" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="92" t="s">
+      <c r="R5" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="60" t="n">
@@ -4640,36 +4513,39 @@
       <c r="D6" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="E6" s="69" t="n">
+        <v>945</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="61" t="s">
+      <c r="H6" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="61"/>
       <c r="K6" s="61"/>
-      <c r="L6" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92" t="s">
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="92"/>
+      <c r="O6" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="R6" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4690,21 +4566,21 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="M2:M6 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4725,16 +4601,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4749,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4769,10 +4645,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4798,10 +4674,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4827,10 +4703,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4858,10 +4734,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>83</v>
@@ -4896,10 +4772,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4920,10 +4796,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>83</v>
@@ -4956,10 +4832,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4982,10 +4858,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -5008,10 +4884,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -5030,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
@@ -5038,7 +4914,7 @@
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -5062,10 +4938,10 @@
         <v>15</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -5097,8 +4973,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="M2:M6 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5121,34 +4997,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -5165,10 +5041,10 @@
         <v>111</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>205</v>
@@ -5177,24 +5053,24 @@
         <v>114</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
       <c r="K2" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>44</v>
@@ -5221,21 +5097,21 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="1" sqref="M2:M6 N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5255,37 +5131,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
@@ -5305,40 +5181,40 @@
         <v>47</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>44</v>
@@ -5365,27 +5241,27 @@
   </sheetPr>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="M2:M6 O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.8056680161943"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5405,43 +5281,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -5458,7 +5334,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>30</v>
@@ -5476,20 +5352,20 @@
         <v>141</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
       <c r="O2" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="68" t="n">
         <v>100</v>
@@ -5507,40 +5383,40 @@
         <v>41</v>
       </c>
       <c r="C3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="E3" s="63" t="s">
         <v>208</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>209</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="63"/>
       <c r="M3" s="70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="68" t="n">
         <v>30</v>
@@ -5560,10 +5436,10 @@
         <v>86</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>205</v>
@@ -5572,39 +5448,39 @@
         <v>88</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R4" s="67" t="s">
         <v>44</v>
       </c>
       <c r="S4" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T4" s="67"/>
     </row>
@@ -5616,10 +5492,10 @@
         <v>95</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>205</v>
@@ -5628,35 +5504,35 @@
         <v>97</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>141</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R5" s="67" t="s">
         <v>44</v>
@@ -5671,7 +5547,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>30</v>
@@ -5683,33 +5559,33 @@
         <v>102</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>85</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J6" s="61" t="s">
         <v>122</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R6" s="67" t="s">
         <v>44</v>
@@ -5724,7 +5600,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>30</v>
@@ -5736,35 +5612,35 @@
         <v>110</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J7" s="61" t="s">
         <v>122</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q7" s="68" t="s">
         <v>218</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="P7" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q7" s="68" t="s">
-        <v>223</v>
       </c>
       <c r="R7" s="67" t="s">
         <v>44</v>
@@ -5789,8 +5665,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="M2:M6 S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5801,14 +5677,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5834,34 +5710,34 @@
         <v>6</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -5870,7 +5746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
@@ -5880,28 +5756,28 @@
         <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>206</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5932,17 +5808,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="M2:M6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.3441295546559"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5973,10 +5849,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>8</v>
       </c>
@@ -5984,7 +5860,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>39</v>
@@ -5993,13 +5869,13 @@
         <v>40</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>20</v>
       </c>
@@ -6007,7 +5883,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>39</v>
@@ -6016,7 +5892,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>21</v>
@@ -6030,7 +5906,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>39</v>
@@ -6039,7 +5915,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>21</v>
@@ -6053,7 +5929,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>39</v>
@@ -6062,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>21</v>
@@ -6076,7 +5952,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>39</v>
@@ -6099,7 +5975,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>39</v>
@@ -6122,7 +5998,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>39</v>
@@ -6137,7 +6013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>65</v>
       </c>
@@ -6145,7 +6021,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>39</v>
@@ -6154,7 +6030,7 @@
         <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>21</v>
@@ -6196,26 +6072,26 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="M2:M6 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="62.663967611336"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.0161943319838"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
@@ -6237,40 +6113,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -6279,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6290,7 +6166,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>57</v>
@@ -6303,22 +6179,22 @@
         <v>58</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="78" t="s">
@@ -6333,7 +6209,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>57</v>
@@ -6343,25 +6219,25 @@
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="78" t="s">
@@ -6376,7 +6252,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>57</v>
@@ -6386,13 +6262,13 @@
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>122</v>
@@ -6400,11 +6276,11 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P4" s="0"/>
       <c r="Q4" s="78" t="s">
@@ -6419,7 +6295,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>57</v>
@@ -6429,13 +6305,13 @@
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>122</v>
@@ -6443,11 +6319,11 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="78" t="s">
@@ -6462,7 +6338,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>57</v>
@@ -6472,25 +6348,25 @@
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="78" t="s">
@@ -6505,7 +6381,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>57</v>
@@ -6515,25 +6391,25 @@
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="78" t="s">
@@ -6548,7 +6424,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>57</v>
@@ -6558,10 +6434,10 @@
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="26" t="s">
@@ -6570,11 +6446,11 @@
       <c r="K8" s="26"/>
       <c r="L8" s="20"/>
       <c r="M8" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="78" t="s">
@@ -6589,34 +6465,34 @@
         <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="78" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="78" t="s">
@@ -6637,26 +6513,26 @@
         <v>57</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74" t="s">
@@ -6677,26 +6553,26 @@
         <v>57</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N11" s="84"/>
       <c r="O11" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P11" s="74"/>
       <c r="Q11" s="74" t="s">
@@ -6719,29 +6595,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="M2:M6 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6759,16 +6635,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6777,37 +6653,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="P1" s="85" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R1" s="85" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T1" s="85" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="U1" s="85" t="s">
         <v>11</v>
@@ -6816,49 +6692,53 @@
         <v>12</v>
       </c>
       <c r="W1" s="85" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="60" t="n">
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
+      <c r="R2" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>198</v>
+      </c>
       <c r="T2" s="67"/>
       <c r="U2" s="67" t="s">
         <v>44</v>
@@ -6868,54 +6748,58 @@
       </c>
       <c r="W2" s="67"/>
     </row>
-    <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="60" t="n">
         <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>172</v>
-      </c>
       <c r="I3" s="61" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="88" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
+      <c r="R3" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="67" t="s">
+        <v>198</v>
+      </c>
       <c r="T3" s="67"/>
       <c r="U3" s="67" t="s">
         <v>21</v>
@@ -6925,6 +6809,8 @@
       </c>
       <c r="W3" s="67"/>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6943,25 +6829,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I12" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6980,43 +6866,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
@@ -7024,35 +6910,38 @@
         <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>265</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="96.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>3</v>
       </c>
@@ -7060,35 +6949,38 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>265</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="338.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>4</v>
       </c>
@@ -7096,29 +6988,32 @@
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>265</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>21</v>
@@ -7143,16 +7038,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="1" sqref="M2:M6 F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7167,10 +7062,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,10 +7076,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>297</v>
+        <v>140</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7198,10 +7093,10 @@
         <v>136</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>299</v>
+        <v>145</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7215,10 +7110,10 @@
         <v>136</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>301</v>
+        <v>148</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7232,10 +7127,10 @@
         <v>136</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>303</v>
+        <v>151</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7249,10 +7144,10 @@
         <v>154</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7266,10 +7161,10 @@
         <v>154</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7283,10 +7178,10 @@
         <v>154</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7300,10 +7195,10 @@
         <v>154</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7314,13 +7209,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7331,13 +7226,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7348,13 +7243,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7365,13 +7260,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7382,13 +7277,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7399,13 +7294,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7416,13 +7311,13 @@
         <v>63</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7433,13 +7328,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7450,13 +7345,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="312">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -89,6 +90,9 @@
     <t xml:space="preserve">Enfriador</t>
   </si>
   <si>
+    <t xml:space="preserve">Primera posicion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primera posición</t>
   </si>
   <si>
@@ -98,7 +102,7 @@
     <t xml:space="preserve">100/0</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 1</t>
+    <t xml:space="preserve">Primera posicion - Option 1</t>
   </si>
   <si>
     <r>
@@ -133,7 +137,7 @@
     <t xml:space="preserve">Pass/Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 2</t>
+    <t xml:space="preserve">Primera posicion - Option 2</t>
   </si>
   <si>
     <r>
@@ -159,7 +163,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 3</t>
+    <t xml:space="preserve">Primera posicion - Option 3</t>
   </si>
   <si>
     <r>
@@ -191,7 +195,7 @@
     <t xml:space="preserve">Relevant option should pass for this KPI to get the score (1 or 2 or 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posición - Option 1</t>
+    <t xml:space="preserve">Respeto posicion - Option 1</t>
   </si>
   <si>
     <r>
@@ -226,7 +230,7 @@
     <t xml:space="preserve">Pass/Fail/ NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posición - Option 2</t>
+    <t xml:space="preserve">Respeto posicion - Option 2</t>
   </si>
   <si>
     <r>
@@ -258,7 +262,7 @@
     <t xml:space="preserve">At least 1 bay with 100% Cooke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posición - Option 3</t>
+    <t xml:space="preserve">Respeto posicion - Option 3</t>
   </si>
   <si>
     <r>
@@ -325,7 +329,7 @@
     <t xml:space="preserve">Proportional </t>
   </si>
   <si>
-    <t xml:space="preserve">Cap. Fría</t>
+    <t xml:space="preserve">Cap. Fria</t>
   </si>
   <si>
     <t xml:space="preserve">Cliente chico: La cantidad de puertas de KO es mayor o igual a 1; Cliente mediano: La cantidad de puertas de KO es mayor o igual que 3; Cliente grande: La cantidad de puertas de KO es mayor o igual a 5</t>
@@ -343,7 +347,7 @@
     <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo por Bloques Opción 1</t>
+    <t xml:space="preserve">Acomodo por Bloques Opcion 1</t>
   </si>
   <si>
     <r>
@@ -807,7 +811,7 @@
     <t xml:space="preserve">Mediano,Grande </t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Comidas?</t>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Comidas?</t>
   </si>
   <si>
     <t xml:space="preserve">Chico,Mediano,Grande</t>
@@ -822,7 +826,7 @@
     <t xml:space="preserve">POS M availability </t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Comidas?</t>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamaño-Comidas?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño?</t>
@@ -831,7 +835,7 @@
     <t xml:space="preserve">Minimum facings in the specific scene type, different target per store size</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas? </t>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Comidas? </t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio?</t>
@@ -840,7 +844,7 @@
     <t xml:space="preserve">Assortment - 100% of the assortment for this specific scene type is available</t>
   </si>
   <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Comidas?</t>
+    <t xml:space="preserve">La plataforma está libre de objetos diferentes al portafolio válido-Comidas?</t>
   </si>
   <si>
     <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido?</t>
@@ -849,28 +853,31 @@
     <t xml:space="preserve">Rack Purity - specific scene 100% of Coke products </t>
   </si>
   <si>
+    <t xml:space="preserve">Plat. Dinamicas 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plat. Dinámicas 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Mediano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat. Dinámicas 2</t>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 1? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinamicas 2</t>
   </si>
   <si>
     <t xml:space="preserve">For large stores we can find more than one rack (Plat. Dinámicas), if we have more than one scene under the specific template we need to use the one with the higher score for the first dynamic kpi and the second one with the higer score for the second dinamyc kpi, we will only report back up to 2</t>
@@ -882,16 +889,16 @@
     <t xml:space="preserve">Plat. Dinámicas 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Plat. Dinámicas 2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 2?</t>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 2?</t>
   </si>
   <si>
     <t xml:space="preserve">Comunicación</t>
@@ -915,19 +922,22 @@
     <t xml:space="preserve">¿Tiene los materiales necesarios por tamaño de cliente?</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidratacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidratación</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratación?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño-Hidratación?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Hidratación? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Hidratación?</t>
+    <t xml:space="preserve">Tiene Copete y Cenefas-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Hidratacion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?</t>
   </si>
   <si>
     <t xml:space="preserve">Task/ Template Group</t>
@@ -1084,6 +1094,9 @@
   </si>
   <si>
     <t xml:space="preserve">iterate by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion 1 ¿Hay un solo bloque de Colas Personales?</t>
   </si>
   <si>
     <t xml:space="preserve">Personal</t>
@@ -1168,6 +1181,9 @@
     <t xml:space="preserve">relevant_questions</t>
   </si>
   <si>
+    <t xml:space="preserve">Primera posición - Option 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exteriores</t>
   </si>
   <si>
@@ -1210,13 +1226,28 @@
     <t xml:space="preserve">POS option present</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Comidas?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum facings met</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory SKUs found</t>
   </si>
   <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coke purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinamicas 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plat. Dinamicas 2 </t>
   </si>
   <si>
     <t xml:space="preserve">Platform</t>
@@ -2019,31 +2050,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D44" activeCellId="1" sqref="M2:M6 D44"/>
+      <selection pane="bottomLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.9433198380567"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -2089,7 +2120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -2103,98 +2134,98 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="K2" s="6"/>
       <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="128" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -2205,77 +2236,77 @@
         <v>9</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="4"/>
       <c r="G6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="4"/>
       <c r="K6" s="14"/>
       <c r="M6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,30 +2314,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -2317,29 +2348,29 @@
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -2350,29 +2381,29 @@
         <v>15</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
@@ -2383,21 +2414,21 @@
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="M12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2405,211 +2436,211 @@
         <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
       <c r="L16" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,43 +2648,43 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -2662,27 +2693,27 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>21</v>
       </c>
@@ -2693,32 +2724,32 @@
         <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <v>21</v>
       </c>
@@ -2729,54 +2760,54 @@
         <v>5</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,43 +2815,43 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -2829,55 +2860,55 @@
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>26</v>
       </c>
@@ -2888,53 +2919,53 @@
         <v>2</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="7"/>
       <c r="G31" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,43 +2973,43 @@
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" s="23"/>
     </row>
@@ -2987,55 +3018,55 @@
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>31</v>
       </c>
@@ -3046,31 +3077,31 @@
         <v>10</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" s="31" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" s="31" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="n">
         <v>32</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" s="30" t="n">
         <v>60</v>
@@ -3081,689 +3112,689 @@
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>34</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>35</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
         <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" s="31" customFormat="true" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" s="31" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
         <v>39</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="30" t="n">
         <v>25</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
         <v>40</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
     </row>
-    <row r="47" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
         <v>40</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
     </row>
-    <row r="48" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="32" t="n">
         <v>41</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="34"/>
       <c r="D48" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="37"/>
     </row>
-    <row r="49" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="38" t="n">
         <v>42</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="36"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="39" t="n">
         <v>43</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="38" t="n">
         <v>44</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I51" s="37"/>
     </row>
-    <row r="52" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
         <v>45</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
         <v>45</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="38" t="n">
         <v>46</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="39" t="n">
         <v>47</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="38" t="n">
         <v>48</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I56" s="37"/>
     </row>
-    <row r="57" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="39" t="n">
         <v>49</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I57" s="37"/>
     </row>
-    <row r="58" customFormat="false" ht="41.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
         <v>50</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="38" t="n">
         <v>51</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I59" s="37"/>
     </row>
-    <row r="60" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="39" t="n">
         <v>52</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="38" t="n">
         <v>53</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="39" t="n">
         <v>54</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" s="47" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="47" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
         <v>55</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="46" t="n">
         <v>10</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E63" s="46"/>
       <c r="F63" s="46"/>
       <c r="G63" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H63" s="46"/>
       <c r="I63" s="46"/>
@@ -3772,89 +3803,89 @@
       <c r="L63" s="46"/>
       <c r="M63" s="46"/>
     </row>
-    <row r="64" customFormat="false" ht="14.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
         <v>56</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C64" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="n">
         <v>57</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
         <v>58</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="46" t="n">
         <v>5</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H66" s="46"/>
       <c r="I66" s="46"/>
@@ -3863,7 +3894,7 @@
       <c r="L66" s="46"/>
       <c r="M66" s="46"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="n">
         <v>59</v>
       </c>
@@ -3872,12 +3903,12 @@
         <v>1</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E67" s="50"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
@@ -3886,25 +3917,25 @@
       <c r="L67" s="51"/>
       <c r="M67" s="51"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
         <v>60</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="52" t="n">
         <v>2</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E68" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F68" s="55"/>
       <c r="G68" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
@@ -3913,115 +3944,109 @@
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
     </row>
-    <row r="69" s="53" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" s="53" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="39" t="n">
         <v>61</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E69" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39" t="n">
         <v>62</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C70" s="57"/>
       <c r="D70" s="35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E70" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39" t="n">
         <v>63</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C71" s="57"/>
       <c r="D71" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="39" t="n">
         <v>64</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E72" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G72" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I72" s="37"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:M72">
-    <filterColumn colId="6">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Combo"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M72"/>
   <mergeCells count="2">
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H14:H20"/>
@@ -4045,17 +4070,17 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="M2:M6 E10"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4076,10 +4101,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4094,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4102,19 +4127,19 @@
         <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="26"/>
@@ -4125,42 +4150,42 @@
         <v>45</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>50</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4171,19 +4196,19 @@
         <v>60</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="52" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4194,19 +4219,19 @@
         <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4229,24 +4254,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2:M6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="75.5182186234818"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="76.1619433198381"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="55.914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
@@ -4267,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4276,10 +4301,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J1" s="85" t="s">
         <v>7</v>
@@ -4291,16 +4316,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P1" s="85" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="85" t="s">
         <v>11</v>
@@ -4309,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,45 +4342,45 @@
         <v>33</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="69" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="69" t="n">
         <v>939</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I2" s="63"/>
       <c r="J2" s="61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S2" s="92"/>
     </row>
@@ -4364,45 +4389,45 @@
         <v>34</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>6</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="69" t="n">
         <v>957</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I3" s="63"/>
       <c r="J3" s="61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P3" s="92"/>
       <c r="Q3" s="92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S3" s="92"/>
     </row>
@@ -4411,45 +4436,45 @@
         <v>35</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" s="69" t="n">
         <v>941</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P4" s="92"/>
       <c r="Q4" s="92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S4" s="92"/>
     </row>
@@ -4458,45 +4483,45 @@
         <v>36</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P5" s="92"/>
       <c r="Q5" s="92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R5" s="92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S5" s="92"/>
     </row>
@@ -4505,45 +4530,45 @@
         <v>37</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" s="69" t="n">
         <v>945</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P6" s="92"/>
       <c r="Q6" s="92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" s="92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S6" s="92"/>
     </row>
@@ -4566,21 +4591,21 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="M2:M6 H1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.2348178137652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4601,16 +4626,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4625,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4642,18 +4667,18 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,22 +4692,22 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="L3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4696,22 +4721,22 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="L4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4725,31 +4750,31 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4763,19 +4788,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4789,29 +4814,29 @@
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="31" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,7 +4844,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="30" t="n">
         <v>60</v>
@@ -4829,13 +4854,13 @@
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4845,23 +4870,23 @@
         <v>39</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>25</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4871,23 +4896,23 @@
         <v>55</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="46" t="n">
         <v>10</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4900,21 +4925,21 @@
         <v>58</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="46" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4931,17 +4956,17 @@
         <v>100</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -4973,8 +4998,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="M2:M6 K19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4997,34 +5022,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -5038,45 +5063,45 @@
         <v>31</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
       <c r="K2" s="40" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="O2" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5097,21 +5122,21 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="1" sqref="M2:M6 N3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5131,37 +5156,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
@@ -5175,52 +5200,52 @@
         <v>10</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5241,27 +5266,27 @@
   </sheetPr>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="M2:M6 O2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.3441295546559"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5281,43 +5306,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -5331,47 +5356,47 @@
         <v>6</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
       <c r="O2" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q2" s="68" t="n">
         <v>100</v>
       </c>
       <c r="R2" s="67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="67"/>
     </row>
@@ -5380,52 +5405,52 @@
         <v>9</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="63"/>
       <c r="M3" s="70" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="68" t="n">
         <v>30</v>
       </c>
       <c r="R3" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,54 +5458,54 @@
         <v>22</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="67" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R4" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" s="73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T4" s="67"/>
     </row>
@@ -5489,53 +5514,53 @@
         <v>25</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="O5" s="67" t="s">
-        <v>212</v>
-      </c>
       <c r="P5" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R5" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5" s="67"/>
     </row>
@@ -5544,51 +5569,51 @@
         <v>27</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="67" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" s="67"/>
     </row>
@@ -5597,53 +5622,53 @@
         <v>30</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="O7" s="67" t="s">
-        <v>212</v>
-      </c>
       <c r="P7" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R7" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S7" s="67"/>
     </row>
@@ -5665,8 +5690,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="M2:M6 S2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5677,14 +5702,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5710,34 +5735,34 @@
         <v>6</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -5746,38 +5771,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5786,7 +5811,7 @@
         <v>25</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5808,17 +5833,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="M2:M6 F3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.5222672064777"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5849,30 +5874,30 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,22 +5905,22 @@
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,22 +5928,22 @@
         <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,22 +5951,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,22 +5974,22 @@
         <v>19</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,22 +5997,22 @@
         <v>23</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,45 +6020,45 @@
         <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,26 +6097,26 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="M2:M6 R2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="63.1983805668016"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.6599190283401"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
@@ -6113,40 +6138,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -6155,7 +6180,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6163,42 +6188,42 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,42 +6231,42 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,42 +6274,42 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="0"/>
       <c r="Q4" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6292,42 +6317,42 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,42 +6360,42 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,42 +6403,42 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,162 +6446,162 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="20"/>
       <c r="M8" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="H9" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="78" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N11" s="84"/>
       <c r="O11" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P11" s="74"/>
       <c r="Q11" s="74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6597,27 +6622,27 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="M2:M6 R2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6635,16 +6660,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6653,37 +6678,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P1" s="85" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R1" s="85" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T1" s="85" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="U1" s="85" t="s">
         <v>11</v>
@@ -6692,7 +6717,7 @@
         <v>12</v>
       </c>
       <c r="W1" s="85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6700,33 +6725,33 @@
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6734,17 +6759,17 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S2" s="67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W2" s="67"/>
     </row>
@@ -6753,59 +6778,59 @@
         <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="F3" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>173</v>
-      </c>
       <c r="I3" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="61" t="s">
-        <v>251</v>
-      </c>
       <c r="K3" s="87" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="88" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="67"/>
       <c r="R3" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S3" s="67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T3" s="67"/>
       <c r="U3" s="67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="67"/>
     </row>
@@ -6829,25 +6854,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I12" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M2:M6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6866,40 +6891,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,116 +6932,116 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="96.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="338.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7038,16 +7063,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="1" sqref="M2:M6 F13"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7062,279 +7087,279 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="n">
         <v>41</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="n">
         <v>42</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>145</v>
+        <v>279</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="n">
         <v>43</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="n">
         <v>44</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="n">
         <v>46</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="n">
         <v>47</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="n">
         <v>48</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="n">
         <v>49</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="n">
         <v>51</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39" t="n">
         <v>52</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38" t="n">
         <v>53</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="n">
         <v>54</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="n">
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="n">
         <v>62</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39" t="n">
         <v>63</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39" t="n">
         <v>64</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7345,13 +7370,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="309">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -826,7 +827,7 @@
     <t xml:space="preserve">POS M availability </t>
   </si>
   <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamaño-Comidas?</t>
+    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Comidas?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene las botellas necesarias por tamaño?</t>
@@ -844,7 +845,7 @@
     <t xml:space="preserve">Assortment - 100% of the assortment for this specific scene type is available</t>
   </si>
   <si>
-    <t xml:space="preserve">La plataforma está libre de objetos diferentes al portafolio válido-Comidas?</t>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
   </si>
   <si>
     <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido?</t>
@@ -862,9 +863,6 @@
     <t xml:space="preserve">Grande</t>
   </si>
   <si>
-    <t xml:space="preserve">Plat. Dinámicas 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 1?</t>
   </si>
   <si>
@@ -886,7 +884,7 @@
     <t xml:space="preserve">Specific Scene Type is present in the session with specific POSM + More than one Rack Secene with specific POSM </t>
   </si>
   <si>
-    <t xml:space="preserve">Plat. Dinámicas 2 </t>
+    <t xml:space="preserve">Plat. Dinamicas 2 </t>
   </si>
   <si>
     <t xml:space="preserve">Tiene Copete y Cenefas-Plat. Dinamicas 2?</t>
@@ -901,7 +899,7 @@
     <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 2?</t>
   </si>
   <si>
-    <t xml:space="preserve">Comunicación</t>
+    <t xml:space="preserve">Comunicacion</t>
   </si>
   <si>
     <t xml:space="preserve">Materiales Temporales</t>
@@ -923,9 +921,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hidratacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidratación</t>
   </si>
   <si>
     <t xml:space="preserve">Tiene Copete y Cenefas-Hidratacion?</t>
@@ -1181,9 +1176,6 @@
     <t xml:space="preserve">relevant_questions</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exteriores</t>
   </si>
   <si>
@@ -1226,18 +1218,12 @@
     <t xml:space="preserve">POS option present</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiene las botellas necesarias por tamano-Comidas?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minimum facings met</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory SKUs found</t>
   </si>
   <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Comidas?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coke purity</t>
   </si>
   <si>
@@ -1247,9 +1233,6 @@
     <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
   </si>
   <si>
-    <t xml:space="preserve">Plat. Dinamicas 2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Platform</t>
   </si>
   <si>
@@ -1259,6 +1242,9 @@
     <t xml:space="preserve">Ahorrack,Frutales,Nutricion</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidratación</t>
+  </si>
+  <si>
     <t xml:space="preserve">Precios en Cooler</t>
   </si>
   <si>
@@ -1283,25 +1269,28 @@
     <t xml:space="preserve">Component aggregation</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición - Option 1,Primera posición - Option 2,Primera posición - Option 3</t>
+    <t xml:space="preserve">Primera posicion - Option 1,Primera posicion - Option 2,Primera posicion - Option 3</t>
   </si>
   <si>
     <t xml:space="preserve">one-passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2,Respeto posición - Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques Opción 1,Acomodo Categorizador,Acomodo</t>
+    <t xml:space="preserve">Respeto posicion - Option 1,Respeto posicion - Option 2,Respeto posicion - Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo por Bloques Opcion 1,Acomodo Categorizador,Acomodo</t>
   </si>
   <si>
     <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2,Bloques Colas - Opcion 3,Bloques Colas - Opcion 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Acomodo por Bloques,Respeto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2,Bloques Frutales - Opcion 3,Bloques Frutales - Opcion 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posición,Respeto,SOCI,Cap. Fría,Acomodo por Bloques,Bloques Colas 50%,Bloques Frutales 25%,Llenado 75%</t>
+    <t xml:space="preserve">Primera posicion,Respeto,SOCI,Cap. Fria,Acomodo por Bloques,Bloques Colas 50%,Bloques Frutales 25%,Llenado 75%</t>
   </si>
   <si>
     <t xml:space="preserve">sum</t>
@@ -1310,10 +1299,13 @@
     <t xml:space="preserve">Colas,Frutales,NCBs,Cola Sin Azucar,Agua,Precios en cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">Comidas,Plat. Dinámicas 1,Plat. Dinámicas 2,Hidratación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicación</t>
+    <t xml:space="preserve">Comidas,Plat. Dinamicas 1,Plat. Dinámicas 2,Hidratacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales Temporales,Materiales Fijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicacion</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Empty</t>
@@ -2056,25 +2048,25 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.9433198380567"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="100.797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -2151,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
@@ -2173,12 +2165,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
@@ -2199,12 +2191,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
@@ -3550,11 +3542,11 @@
         <v>46</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>86</v>
@@ -3575,11 +3567,11 @@
         <v>47</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>86</v>
@@ -3602,11 +3594,11 @@
         <v>48</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>86</v>
@@ -3627,11 +3619,11 @@
         <v>49</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>86</v>
@@ -3658,7 +3650,7 @@
         <v>1.5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>157</v>
@@ -3668,10 +3660,10 @@
         <v>134</v>
       </c>
       <c r="H58" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
@@ -3681,11 +3673,11 @@
         <v>51</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>157</v>
@@ -3706,11 +3698,11 @@
         <v>52</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>157</v>
@@ -3733,11 +3725,11 @@
         <v>53</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>157</v>
@@ -3758,11 +3750,11 @@
         <v>54</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>157</v>
@@ -3803,28 +3795,28 @@
       <c r="L63" s="46"/>
       <c r="M63" s="46"/>
     </row>
-    <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
         <v>56</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -3836,28 +3828,28 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="n">
         <v>57</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -3869,7 +3861,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
         <v>58</v>
       </c>
@@ -3880,7 +3872,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
@@ -3928,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E68" s="54" t="s">
         <v>140</v>
@@ -3949,11 +3941,11 @@
         <v>61</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E69" s="54" t="s">
         <v>140</v>
@@ -3974,11 +3966,11 @@
         <v>62</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C70" s="57"/>
       <c r="D70" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E70" s="54" t="s">
         <v>140</v>
@@ -3999,11 +3991,11 @@
         <v>63</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C71" s="57"/>
       <c r="D71" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E71" s="54" t="s">
         <v>140</v>
@@ -4024,11 +4016,11 @@
         <v>64</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E72" s="54" t="s">
         <v>140</v>
@@ -4076,11 +4068,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4101,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4119,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4162,7 +4154,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
@@ -4179,13 +4171,13 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4202,13 +4194,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4231,7 +4223,7 @@
         <v>134</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4254,24 +4246,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="76.1619433198381"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="76.8056680161943"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="56.3441295546559"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
@@ -4292,7 +4284,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4301,10 +4293,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J1" s="85" t="s">
         <v>7</v>
@@ -4316,16 +4308,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P1" s="85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="85" t="s">
         <v>11</v>
@@ -4334,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4352,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I2" s="63"/>
       <c r="J2" s="61" t="s">
@@ -4369,11 +4361,11 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="92" t="s">
@@ -4407,7 +4399,7 @@
         <v>120</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I3" s="63"/>
       <c r="J3" s="61" t="s">
@@ -4416,11 +4408,11 @@
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P3" s="92"/>
       <c r="Q3" s="92" t="s">
@@ -4454,7 +4446,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
@@ -4463,11 +4455,11 @@
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P4" s="92"/>
       <c r="Q4" s="92" t="s">
@@ -4489,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
@@ -4501,7 +4493,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
@@ -4510,11 +4502,11 @@
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P5" s="92"/>
       <c r="Q5" s="92" t="s">
@@ -4548,7 +4540,7 @@
         <v>120</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
@@ -4557,11 +4549,11 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P6" s="92"/>
       <c r="Q6" s="92" t="s">
@@ -4590,22 +4582,22 @@
   </sheetPr>
   <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4626,16 +4618,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4650,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4670,10 +4662,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4681,7 +4673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>5</v>
       </c>
@@ -4699,10 +4691,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4728,10 +4720,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4759,13 +4751,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4797,10 +4789,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4821,13 +4813,13 @@
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4857,10 +4849,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4883,10 +4875,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4909,10 +4901,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4931,15 +4923,17 @@
         <v>5</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>304</v>
+      </c>
       <c r="H11" s="46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4963,10 +4957,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -4998,7 +4992,7 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -5022,34 +5016,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -5069,33 +5063,33 @@
         <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>115</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
       <c r="K2" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>45</v>
@@ -5129,14 +5123,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5156,37 +5150,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="O1" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
@@ -5206,40 +5200,40 @@
         <v>48</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>142</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="O2" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>45</v>
@@ -5273,20 +5267,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.8785425101215"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5306,43 +5300,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -5365,32 +5359,32 @@
         <v>31</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>142</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
       <c r="O2" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q2" s="68" t="n">
         <v>100</v>
@@ -5411,37 +5405,37 @@
         <v>43</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>142</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="63"/>
       <c r="M3" s="70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="68" t="n">
         <v>30</v>
@@ -5464,48 +5458,48 @@
         <v>88</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>142</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R4" s="67" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T4" s="67"/>
     </row>
@@ -5520,44 +5514,44 @@
         <v>97</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" s="61" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>142</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R5" s="67" t="s">
         <v>45</v>
@@ -5578,39 +5572,39 @@
         <v>31</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="61" t="s">
         <v>103</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J6" s="61" t="s">
         <v>123</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R6" s="67" t="s">
         <v>45</v>
@@ -5631,41 +5625,41 @@
         <v>31</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7" s="61" t="s">
         <v>123</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R7" s="67" t="s">
         <v>45</v>
@@ -5702,14 +5696,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5735,34 +5729,34 @@
         <v>6</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -5784,25 +5778,25 @@
         <v>35</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="I2" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>227</v>
-      </c>
       <c r="J2" s="65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5839,11 +5833,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.0566801619433"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5874,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,7 +5888,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>33</v>
@@ -5917,7 +5911,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -5940,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -5963,7 +5957,7 @@
         <v>80</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -6055,7 +6049,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>22</v>
@@ -6105,19 +6099,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="63.7368421052632"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="81.4089068825911"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="78" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="78" width="6.63967611336032"/>
@@ -6138,40 +6131,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -6180,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6191,35 +6184,35 @@
         <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="25" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="78" t="s">
@@ -6240,29 +6233,29 @@
         <v>58</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="78" t="s">
@@ -6283,17 +6276,17 @@
         <v>58</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>123</v>
@@ -6301,11 +6294,11 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P4" s="0"/>
       <c r="Q4" s="78" t="s">
@@ -6326,17 +6319,17 @@
         <v>58</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>123</v>
@@ -6344,11 +6337,11 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="78" t="s">
@@ -6369,29 +6362,29 @@
         <v>58</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="78" t="s">
@@ -6412,29 +6405,29 @@
         <v>58</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="78" t="s">
@@ -6455,14 +6448,14 @@
         <v>58</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="26" t="s">
@@ -6471,11 +6464,11 @@
       <c r="K8" s="26"/>
       <c r="L8" s="20"/>
       <c r="M8" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="78" t="s">
@@ -6490,34 +6483,34 @@
         <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="78" t="s">
@@ -6538,26 +6531,26 @@
         <v>58</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74" t="s">
@@ -6578,26 +6571,26 @@
         <v>58</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N11" s="84"/>
       <c r="O11" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P11" s="74"/>
       <c r="Q11" s="74" t="s">
@@ -6629,20 +6622,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6660,16 +6653,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6678,37 +6671,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K1" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="N1" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="O1" s="85" t="s">
         <v>248</v>
-      </c>
-      <c r="N1" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1" s="85" t="s">
-        <v>250</v>
       </c>
       <c r="P1" s="85" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R1" s="85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T1" s="85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U1" s="85" t="s">
         <v>11</v>
@@ -6717,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="W1" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,33 +6718,33 @@
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>172</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>173</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="61" t="s">
         <v>174</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>175</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6759,10 +6752,10 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S2" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="67" t="s">
@@ -6778,52 +6771,52 @@
         <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="D3" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="87" t="s">
         <v>258</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>260</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="67"/>
       <c r="R3" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S3" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T3" s="67"/>
       <c r="U3" s="67" t="s">
@@ -6854,25 +6847,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6891,48 +6884,48 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>19</v>
@@ -6941,26 +6934,26 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="I2" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>22</v>
@@ -6980,26 +6973,26 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>22</v>
@@ -7019,26 +7012,26 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>22</v>
@@ -7069,10 +7062,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7087,10 +7080,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7097,7 @@
         <v>141</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7118,10 +7111,10 @@
         <v>137</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7138,7 +7131,7 @@
         <v>149</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7152,10 +7145,10 @@
         <v>137</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7169,10 +7162,10 @@
         <v>155</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7186,10 +7179,10 @@
         <v>155</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7200,13 +7193,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7217,13 +7210,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7234,13 +7227,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7251,13 +7244,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7268,13 +7261,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7285,13 +7278,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7302,13 +7295,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>180</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7319,13 +7312,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7336,13 +7329,13 @@
         <v>63</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7353,13 +7346,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7376,7 +7369,7 @@
         <v>132</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -463,7 +464,7 @@
     <t xml:space="preserve">Is each category blocked?</t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo </t>
+    <t xml:space="preserve">Acomodo</t>
   </si>
   <si>
     <r>
@@ -2047,26 +2048,26 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>20</v>
       </c>
@@ -4068,11 +4069,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4246,24 +4247,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="76.8056680161943"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="77.4453441295547"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="56.7732793522267"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
@@ -4583,21 +4584,21 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -5123,14 +5124,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5267,20 +5268,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="66.412955465587"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5696,14 +5697,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5827,17 +5828,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.5951417004049"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.9514170040486"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5894,7 +5895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>20</v>
       </c>
@@ -6099,14 +6100,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="64.2712550607287"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="82.1619433198381"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
@@ -6622,20 +6623,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6853,19 +6854,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7062,10 +7063,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="310">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1232,6 +1233,9 @@
   </si>
   <si>
     <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion?</t>
   </si>
   <si>
     <t xml:space="preserve">Platform</t>
@@ -2048,7 +2052,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
@@ -2057,17 +2061,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.655870445344"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="102.619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -4069,11 +4073,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4094,10 +4098,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4155,7 +4159,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
@@ -4178,7 +4182,7 @@
         <v>134</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4201,7 +4205,7 @@
         <v>134</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4224,7 +4228,7 @@
         <v>134</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4254,17 +4258,17 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="77.4453441295547"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="78.0890688259109"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="57.3076923076923"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
@@ -4285,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4362,7 +4366,7 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
@@ -4409,7 +4413,7 @@
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
@@ -4447,7 +4451,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
@@ -4456,7 +4460,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
@@ -4482,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
@@ -4494,7 +4498,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
@@ -4503,7 +4507,7 @@
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
@@ -4541,7 +4545,7 @@
         <v>120</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
@@ -4550,7 +4554,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
@@ -4591,14 +4595,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4619,16 +4623,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4663,10 +4667,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4692,10 +4696,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4721,10 +4725,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4752,13 +4756,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4790,10 +4794,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4814,13 +4818,13 @@
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4850,10 +4854,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4876,10 +4880,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>301</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4902,10 +4906,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4931,10 +4935,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4958,10 +4962,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -5064,7 +5068,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>206</v>
@@ -5076,7 +5080,7 @@
         <v>190</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
@@ -5090,7 +5094,7 @@
         <v>199</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>45</v>
@@ -5124,14 +5128,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5268,20 +5272,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="67.0566801619433"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
@@ -5697,14 +5701,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5835,10 +5839,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6100,14 +6104,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="64.8056680161943"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="82.8016194331984"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.3886639676113"/>
@@ -6623,20 +6627,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6854,19 +6858,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7056,17 +7060,17 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7333,7 +7337,7 @@
         <v>177</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>277</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="312">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría en frío?</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution </t>
+    <t xml:space="preserve">Distribution</t>
   </si>
   <si>
     <t xml:space="preserve">Assortment KPI per store size and category only cold scenes</t>
@@ -910,7 +910,7 @@
     <t xml:space="preserve">¿Tiene los materiales intruidos para el mes?</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability </t>
+    <t xml:space="preserve">Availability</t>
   </si>
   <si>
     <t xml:space="preserve">POSM Assortment KPI</t>
@@ -1145,6 +1145,9 @@
     <t xml:space="preserve">Denominator Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability </t>
+  </si>
+  <si>
     <t xml:space="preserve">Exteriores,POS</t>
   </si>
   <si>
@@ -1254,6 +1257,9 @@
   </si>
   <si>
     <t xml:space="preserve">kpi_fk_lvl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution </t>
   </si>
   <si>
     <t xml:space="preserve">product_fk</t>
@@ -2052,10 +2058,10 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3116,7 +3122,7 @@
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
         <v>33</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>34</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>35</v>
       </c>
@@ -4098,10 +4104,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4159,7 +4165,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
@@ -4182,7 +4188,7 @@
         <v>134</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4205,7 +4211,7 @@
         <v>134</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4228,7 +4234,7 @@
         <v>134</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4289,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4354,7 +4360,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="H2" s="63" t="s">
         <v>209</v>
@@ -4366,7 +4372,7 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
@@ -4401,7 +4407,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>209</v>
@@ -4413,7 +4419,7 @@
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
@@ -4448,10 +4454,10 @@
         <v>126</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
@@ -4460,7 +4466,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
@@ -4486,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
@@ -4495,10 +4501,10 @@
         <v>129</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
@@ -4507,7 +4513,7 @@
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
@@ -4542,10 +4548,10 @@
         <v>131</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
@@ -4554,7 +4560,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
@@ -4588,7 +4594,7 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4623,16 +4629,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4667,10 +4673,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4696,10 +4702,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4725,10 +4731,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4756,13 +4762,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4794,10 +4800,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4818,13 +4824,13 @@
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4854,10 +4860,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4880,10 +4886,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4906,10 +4912,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>304</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>302</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4935,10 +4941,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4962,10 +4968,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -5068,7 +5074,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>206</v>
@@ -5080,7 +5086,7 @@
         <v>190</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
@@ -5094,7 +5100,7 @@
         <v>199</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>45</v>
@@ -5832,7 +5838,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6730,26 +6736,26 @@
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="69" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H2" s="61" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -6782,35 +6788,35 @@
         <v>176</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H3" s="61" t="s">
         <v>174</v>
       </c>
       <c r="I3" s="61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O3" s="88" t="s">
         <v>195</v>
@@ -6898,7 +6904,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>247</v>
@@ -6939,26 +6945,26 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
         <v>198</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>22</v>
@@ -6978,16 +6984,16 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
@@ -6997,7 +7003,7 @@
         <v>198</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>22</v>
@@ -7017,26 +7023,26 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
         <v>198</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>22</v>
@@ -7060,8 +7066,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7085,10 +7091,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,7 +7108,7 @@
         <v>141</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7119,7 +7125,7 @@
         <v>146</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7136,7 +7142,7 @@
         <v>149</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7153,7 +7159,7 @@
         <v>152</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7170,7 +7176,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7187,7 +7193,7 @@
         <v>159</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7204,7 +7210,7 @@
         <v>160</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7215,13 +7221,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7238,7 +7244,7 @@
         <v>166</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7255,7 +7261,7 @@
         <v>167</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7272,7 +7278,7 @@
         <v>168</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7289,7 +7295,7 @@
         <v>169</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7306,7 +7312,7 @@
         <v>178</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7323,7 +7329,7 @@
         <v>179</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7337,10 +7343,10 @@
         <v>177</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7357,7 +7363,7 @@
         <v>181</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7374,7 +7380,7 @@
         <v>132</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="311">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -874,7 +874,7 @@
     <t xml:space="preserve">Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?</t>
   </si>
   <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinámicas 1?</t>
+    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
   </si>
   <si>
     <t xml:space="preserve">Plat. Dinamicas 2</t>
@@ -1233,9 +1233,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plat. Dinamicas 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Plat. Dinamicas 1?</t>
   </si>
   <si>
     <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion?</t>
@@ -2059,9 +2056,9 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
+      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4104,10 +4101,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4165,7 +4162,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
@@ -4188,7 +4185,7 @@
         <v>134</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4211,7 +4208,7 @@
         <v>134</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4234,7 +4231,7 @@
         <v>134</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4295,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4360,7 +4357,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2" s="63" t="s">
         <v>209</v>
@@ -4372,7 +4369,7 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
@@ -4407,7 +4404,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>209</v>
@@ -4419,7 +4416,7 @@
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
@@ -4454,10 +4451,10 @@
         <v>126</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
@@ -4466,7 +4463,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
@@ -4492,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
@@ -4501,10 +4498,10 @@
         <v>129</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
@@ -4513,7 +4510,7 @@
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
@@ -4548,10 +4545,10 @@
         <v>131</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
@@ -4560,7 +4557,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
@@ -4629,16 +4626,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4673,10 +4670,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4702,10 +4699,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4731,10 +4728,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4762,13 +4759,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>301</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4800,10 +4797,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4824,13 +4821,13 @@
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4860,10 +4857,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>304</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4886,10 +4883,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4912,10 +4909,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4941,10 +4938,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4968,10 +4965,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -5074,7 +5071,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>206</v>
@@ -5086,7 +5083,7 @@
         <v>190</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
@@ -5100,7 +5097,7 @@
         <v>199</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>45</v>
@@ -7224,7 +7221,7 @@
         <v>280</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>279</v>
@@ -7343,7 +7340,7 @@
         <v>177</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>278</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1072,7 +1072,7 @@
     <t xml:space="preserve">Target Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posición - Option 1,Respeto posición - Option 2</t>
+    <t xml:space="preserve">Respeto posicion - Option 1,Respeto posicion - Option 2</t>
   </si>
   <si>
     <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua,Acomodo Categorizador (Detalle)</t>
@@ -2055,10 +2055,10 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5834,8 +5834,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,21 +23,21 @@
     <sheet name="Share of Empty" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="test" vbProcedure="false">KPIs!$A$1:$M$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="test" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="317">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -760,12 +760,18 @@
     <t xml:space="preserve">Proportional</t>
   </si>
   <si>
+    <t xml:space="preserve">Colas - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frutales</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene 2 empaques de refrescancia y 1 de indulgencia según el tamaño del cliente en frío?</t>
   </si>
   <si>
+    <t xml:space="preserve">Frutales - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">NCBs</t>
   </si>
   <si>
@@ -775,16 +781,28 @@
     <t xml:space="preserve">Assortment KPI per store size and category in the whole store</t>
   </si>
   <si>
+    <t xml:space="preserve">NCBs - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cola Sin Azucar</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría?</t>
   </si>
   <si>
+    <t xml:space="preserve">Cola Sin Azucar - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agua</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene el empaque en frío o ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua - SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Precios en cooler</t>
@@ -2053,12 +2071,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3152,61 +3170,45 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>34</v>
-      </c>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11"/>
       <c r="B40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>6</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
-      <c r="L40" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
-        <v>35</v>
+      <c r="A41" s="9" t="n">
+        <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>120</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -3218,42 +3220,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="n">
-        <v>36</v>
-      </c>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
       <c r="B42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>37</v>
+    </row>
+    <row r="43" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>35</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
@@ -3262,17 +3248,17 @@
         <v>4</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>120</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -3284,769 +3270,888 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11"/>
+      <c r="B46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="L44" s="0" t="s">
+      <c r="D49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="M49" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" s="31" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
+    <row r="50" s="31" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B50" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="30" t="n">
+      <c r="C50" s="30" t="n">
         <v>25</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D50" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="5" t="n">
+      <c r="B51" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-    </row>
-    <row r="47" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="D51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+    </row>
+    <row r="52" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="5" t="n">
+      <c r="B52" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="D52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-    </row>
-    <row r="48" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32" t="n">
-        <v>41</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="37"/>
-    </row>
-    <row r="49" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38" t="n">
-        <v>42</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39" t="n">
-        <v>43</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I50" s="36"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38" t="n">
-        <v>44</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I51" s="37"/>
-    </row>
-    <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="26" t="s">
-        <v>139</v>
-      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="A53" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="38" t="n">
+        <v>42</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="36"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="39" t="n">
+        <v>43</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E55" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-    </row>
-    <row r="54" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38" t="n">
-        <v>46</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39" t="n">
-        <v>47</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>148</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="38" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="I56" s="37"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39" t="n">
-        <v>49</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="40" t="s">
+    <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G57" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I57" s="37"/>
-    </row>
-    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+    </row>
+    <row r="58" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>164</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="38" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B59" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="39" t="n">
+        <v>47</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G59" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="37"/>
-    </row>
-    <row r="60" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39" t="n">
-        <v>52</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>157</v>
+      <c r="E60" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="F60" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="G60" s="44" t="s">
-        <v>144</v>
-      </c>
       <c r="H60" s="36" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="38" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="C61" s="45"/>
       <c r="D61" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="39" t="n">
+        <v>49</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="33"/>
+      <c r="D62" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" s="37"/>
+    </row>
+    <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="36" t="s">
+      <c r="E63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+    </row>
+    <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="38" t="n">
+        <v>51</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="33"/>
+      <c r="D64" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="I61" s="37"/>
-    </row>
-    <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39" t="n">
-        <v>54</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="36" t="s">
+      <c r="I64" s="37"/>
+    </row>
+    <row r="65" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="39" t="n">
+        <v>52</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="I62" s="37"/>
-    </row>
-    <row r="63" s="47" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="B63" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="46" t="n">
-        <v>10</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
-        <v>56</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="n">
-        <v>57</v>
-      </c>
-      <c r="B65" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="36"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
-      <c r="L65" s="0" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="38" t="n">
+        <v>53</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" s="37"/>
+    </row>
+    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="39" t="n">
+        <v>54</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="33"/>
+      <c r="D67" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I67" s="37"/>
+    </row>
+    <row r="68" s="47" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M65" s="0" t="s">
+      <c r="M69" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="n">
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B71" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="46" t="n">
+      <c r="C71" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="D66" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46" t="s">
+      <c r="D71" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="n">
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49" t="n">
+      <c r="B72" s="48"/>
+      <c r="C72" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D72" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51" t="s">
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="n">
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="52" t="n">
+      <c r="B73" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="54" t="s">
+      <c r="D73" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="55"/>
+      <c r="G73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-    </row>
-    <row r="69" s="53" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39" t="n">
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+    </row>
+    <row r="74" s="53" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="39" t="n">
         <v>61</v>
       </c>
-      <c r="B69" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="37"/>
-    </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39" t="n">
+      <c r="B74" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="57"/>
+      <c r="D74" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" s="37"/>
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="39" t="n">
         <v>62</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G70" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I70" s="37"/>
-    </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39" t="n">
+      <c r="B75" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H75" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I75" s="37"/>
+    </row>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="39" t="n">
         <v>63</v>
       </c>
-      <c r="B71" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" s="35" t="s">
+      <c r="B76" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="57"/>
+      <c r="D76" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I71" s="37"/>
-    </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39" t="n">
+      <c r="H76" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="37"/>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="39" t="n">
         <v>64</v>
       </c>
-      <c r="B72" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I72" s="37"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B77" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H77" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I77" s="37"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:M72"/>
+  <autoFilter ref="A1:M77"/>
   <mergeCells count="2">
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H14:H20"/>
@@ -4101,10 +4206,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4119,7 +4224,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4127,19 +4232,19 @@
         <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="26"/>
@@ -4150,19 +4255,19 @@
         <v>45</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
@@ -4173,19 +4278,19 @@
         <v>50</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4196,19 +4301,19 @@
         <v>60</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C5" s="52" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4225,13 +4330,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4292,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4301,10 +4406,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J1" s="85" t="s">
         <v>7</v>
@@ -4316,16 +4421,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P1" s="85" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="85" t="s">
         <v>11</v>
@@ -4334,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,10 +4462,10 @@
         <v>119</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I2" s="63"/>
       <c r="J2" s="61" t="s">
@@ -4369,11 +4474,11 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="92" t="s">
@@ -4395,19 +4500,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" s="69" t="n">
         <v>957</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I3" s="63"/>
       <c r="J3" s="61" t="s">
@@ -4416,11 +4521,11 @@
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P3" s="92"/>
       <c r="Q3" s="92" t="s">
@@ -4442,32 +4547,32 @@
         <v>4</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" s="69" t="n">
         <v>941</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P4" s="92"/>
       <c r="Q4" s="92" t="s">
@@ -4489,32 +4594,32 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P5" s="92"/>
       <c r="Q5" s="92" t="s">
@@ -4536,32 +4641,32 @@
         <v>4</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E6" s="69" t="n">
         <v>945</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P6" s="92"/>
       <c r="Q6" s="92" t="s">
@@ -4626,16 +4731,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4650,7 +4755,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4670,10 +4775,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4699,10 +4804,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4728,10 +4833,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4753,19 +4858,19 @@
         <v>81</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4791,16 +4896,16 @@
         <v>81</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4821,13 +4926,13 @@
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4857,10 +4962,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4883,10 +4988,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -4902,17 +5007,17 @@
         <v>10</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -4931,17 +5036,17 @@
         <v>5</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -4965,10 +5070,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -5024,34 +5129,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -5071,33 +5176,33 @@
         <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>115</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
       <c r="K2" s="40" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>45</v>
@@ -5158,37 +5263,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
@@ -5208,40 +5313,40 @@
         <v>48</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>45</v>
@@ -5308,43 +5413,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -5367,32 +5472,32 @@
         <v>31</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
       <c r="O2" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="68" t="n">
         <v>100</v>
@@ -5413,37 +5518,37 @@
         <v>43</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="63"/>
       <c r="M3" s="70" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="68" t="n">
         <v>30</v>
@@ -5466,48 +5571,48 @@
         <v>88</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="67" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="R4" s="67" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="73" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="T4" s="67"/>
     </row>
@@ -5522,44 +5627,44 @@
         <v>97</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F5" s="61" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="74" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="R5" s="67" t="s">
         <v>45</v>
@@ -5580,39 +5685,39 @@
         <v>31</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F6" s="61" t="s">
         <v>103</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="67" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="R6" s="67" t="s">
         <v>45</v>
@@ -5633,41 +5738,41 @@
         <v>31</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="74" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R7" s="67" t="s">
         <v>45</v>
@@ -5737,34 +5842,34 @@
         <v>6</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -5786,25 +5891,25 @@
         <v>35</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5834,7 +5939,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5876,7 +5981,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +6001,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>33</v>
@@ -5919,7 +6024,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -5942,7 +6047,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -5965,7 +6070,7 @@
         <v>80</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -6057,7 +6162,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>22</v>
@@ -6139,40 +6244,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -6181,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6192,35 +6297,35 @@
         <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="25" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="78" t="s">
@@ -6241,29 +6346,29 @@
         <v>58</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="78" t="s">
@@ -6284,29 +6389,29 @@
         <v>58</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P4" s="0"/>
       <c r="Q4" s="78" t="s">
@@ -6327,29 +6432,29 @@
         <v>58</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="78" t="s">
@@ -6370,29 +6475,29 @@
         <v>58</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="78" t="s">
@@ -6413,29 +6518,29 @@
         <v>58</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="78" t="s">
@@ -6456,27 +6561,27 @@
         <v>58</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="20"/>
       <c r="M8" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="78" t="s">
@@ -6491,34 +6596,34 @@
         <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="78" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="78" t="s">
@@ -6539,26 +6644,26 @@
         <v>58</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74" t="s">
@@ -6579,26 +6684,26 @@
         <v>58</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N11" s="84"/>
       <c r="O11" s="78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P11" s="74"/>
       <c r="Q11" s="74" t="s">
@@ -6623,8 +6728,8 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6661,16 +6766,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6679,37 +6784,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P1" s="85" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="R1" s="85" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="T1" s="85" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U1" s="85" t="s">
         <v>11</v>
@@ -6718,52 +6823,51 @@
         <v>12</v>
       </c>
       <c r="W1" s="85" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="60" t="n">
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="69" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
       <c r="P2" s="61"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67" t="s">
-        <v>198</v>
+      <c r="Q2" s="67" t="s">
+        <v>204</v>
       </c>
       <c r="S2" s="67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="67" t="s">
@@ -6774,57 +6878,56 @@
       </c>
       <c r="W2" s="67"/>
     </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="60" t="n">
         <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D3" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>251</v>
-      </c>
       <c r="F3" s="63" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I3" s="61" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="88" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P3" s="61"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67" t="s">
-        <v>198</v>
+      <c r="Q3" s="67" t="s">
+        <v>204</v>
       </c>
       <c r="S3" s="67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T3" s="67"/>
       <c r="U3" s="67" t="s">
@@ -6892,40 +6995,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6942,26 +7045,26 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>22</v>
@@ -6981,26 +7084,26 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>22</v>
@@ -7020,26 +7123,26 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>22</v>
@@ -7088,10 +7191,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,13 +7202,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7116,13 +7219,13 @@
         <v>42</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7133,13 +7236,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7150,13 +7253,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7167,13 +7270,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7184,13 +7287,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7201,13 +7304,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7218,13 +7321,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7235,13 +7338,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7252,13 +7355,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7269,13 +7372,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7286,13 +7389,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7303,13 +7406,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7320,13 +7423,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7337,13 +7440,13 @@
         <v>63</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7354,13 +7457,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7374,10 +7477,10 @@
         <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="316">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -949,7 +949,7 @@
     <t xml:space="preserve">Tiene las botellas necesarias por tamano-Hidratacion?</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion? </t>
+    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion?</t>
   </si>
   <si>
     <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?</t>
@@ -1251,9 +1251,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plat. Dinamicas 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiene los empaques mandatorios de portafolio-Hidratacion?</t>
   </si>
   <si>
     <t xml:space="preserve">Platform</t>
@@ -2073,10 +2070,10 @@
   </sheetPr>
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4206,10 +4203,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -4267,7 +4264,7 @@
         <v>140</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="26"/>
@@ -4290,7 +4287,7 @@
         <v>140</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
@@ -4313,7 +4310,7 @@
         <v>140</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
@@ -4336,7 +4333,7 @@
         <v>140</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4397,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>5</v>
@@ -4462,7 +4459,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H2" s="63" t="s">
         <v>215</v>
@@ -4474,7 +4471,7 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="61" t="s">
@@ -4509,7 +4506,7 @@
         <v>125</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>215</v>
@@ -4521,7 +4518,7 @@
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="61" t="s">
@@ -4556,10 +4553,10 @@
         <v>128</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="61" t="s">
@@ -4568,7 +4565,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="61" t="s">
@@ -4594,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" s="69" t="n">
         <v>945</v>
@@ -4603,10 +4600,10 @@
         <v>132</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="61" t="s">
@@ -4615,7 +4612,7 @@
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="61" t="s">
@@ -4650,10 +4647,10 @@
         <v>135</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="61" t="s">
@@ -4662,7 +4659,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="61" t="s">
@@ -4695,8 +4692,8 @@
   </sheetPr>
   <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4731,16 +4728,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -4775,10 +4772,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4804,10 +4801,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4833,10 +4830,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4864,13 +4861,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4902,10 +4899,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4926,13 +4923,13 @@
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4962,10 +4959,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>308</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>309</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4988,10 +4985,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -5014,10 +5011,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -5043,10 +5040,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -5070,10 +5067,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -5176,7 +5173,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>212</v>
@@ -5188,7 +5185,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="63"/>
@@ -5202,7 +5199,7 @@
         <v>205</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>45</v>
@@ -5939,7 +5936,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -6728,8 +6725,8 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7443,7 +7440,7 @@
         <v>183</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>284</v>
